--- a/Tabulados INPC/inflacion_quincenal_generico.xlsx
+++ b/Tabulados INPC/inflacion_quincenal_generico.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miguel.gonzalez\Documents\01 IIEG\py Precios\Tabulados\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miguel.gonzalez\Documents\GitHub\SIE\Tabulados INPC\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1589" uniqueCount="434">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1590" uniqueCount="434">
   <si>
     <t>Alimentos, bebidas y tabaco</t>
   </si>
@@ -1280,9 +1280,6 @@
     <t>Unidad de medida: Tasas / porcentaje</t>
   </si>
   <si>
-    <t>Última actualización: enero de 2022</t>
-  </si>
-  <si>
     <t>Año / mes / quincena</t>
   </si>
   <si>
@@ -1329,6 +1326,9 @@
   </si>
   <si>
     <t>Inflación quincenal respecto a la quincena inmediata anterior por producto genérico, clasificado por objeto de gasto</t>
+  </si>
+  <si>
+    <t>Última actualización: febrero de 2022</t>
   </si>
 </sst>
 </file>
@@ -1895,7 +1895,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A8:CJ317"/>
+  <dimension ref="A8:CK317"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -1911,42 +1911,42 @@
     <col min="46" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="8" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="9" spans="1:89" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="9" spans="1:88" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+    <row r="10" spans="1:89" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="11" spans="1:89" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="10" spans="1:88" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="11" spans="1:88" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="12" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="13" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="15" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:89" x14ac:dyDescent="0.25">
       <c r="F15" s="12" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
-    <row r="16" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
         <v>412</v>
       </c>
@@ -2211,264 +2211,270 @@
       <c r="CJ16" s="12">
         <v>2022</v>
       </c>
+      <c r="CK16" s="12">
+        <v>2022</v>
+      </c>
     </row>
-    <row r="17" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A17" s="16"/>
       <c r="B17" s="16"/>
       <c r="C17" s="16"/>
       <c r="D17" s="16"/>
       <c r="E17" s="16"/>
       <c r="F17" s="13" t="s">
+        <v>419</v>
+      </c>
+      <c r="G17" s="13" t="s">
+        <v>419</v>
+      </c>
+      <c r="H17" s="13" t="s">
         <v>420</v>
       </c>
-      <c r="G17" s="13" t="s">
+      <c r="I17" s="13" t="s">
         <v>420</v>
       </c>
-      <c r="H17" s="13" t="s">
+      <c r="J17" s="13" t="s">
         <v>421</v>
       </c>
-      <c r="I17" s="13" t="s">
+      <c r="K17" s="13" t="s">
         <v>421</v>
       </c>
-      <c r="J17" s="13" t="s">
+      <c r="L17" s="13" t="s">
         <v>422</v>
       </c>
-      <c r="K17" s="13" t="s">
+      <c r="M17" s="13" t="s">
         <v>422</v>
       </c>
-      <c r="L17" s="13" t="s">
+      <c r="N17" s="13" t="s">
         <v>423</v>
       </c>
-      <c r="M17" s="13" t="s">
+      <c r="O17" s="13" t="s">
         <v>423</v>
       </c>
-      <c r="N17" s="13" t="s">
+      <c r="P17" s="13" t="s">
         <v>424</v>
       </c>
-      <c r="O17" s="13" t="s">
+      <c r="Q17" s="13" t="s">
         <v>424</v>
       </c>
-      <c r="P17" s="13" t="s">
+      <c r="R17" s="13" t="s">
         <v>425</v>
       </c>
-      <c r="Q17" s="13" t="s">
+      <c r="S17" s="13" t="s">
         <v>425</v>
       </c>
-      <c r="R17" s="13" t="s">
+      <c r="T17" s="13" t="s">
         <v>426</v>
       </c>
-      <c r="S17" s="13" t="s">
+      <c r="U17" s="13" t="s">
         <v>426</v>
       </c>
-      <c r="T17" s="13" t="s">
+      <c r="V17" s="13" t="s">
         <v>427</v>
       </c>
-      <c r="U17" s="13" t="s">
+      <c r="W17" s="13" t="s">
         <v>427</v>
       </c>
-      <c r="V17" s="13" t="s">
+      <c r="X17" s="13" t="s">
         <v>428</v>
       </c>
-      <c r="W17" s="13" t="s">
+      <c r="Y17" s="13" t="s">
         <v>428</v>
       </c>
-      <c r="X17" s="13" t="s">
+      <c r="Z17" s="13" t="s">
         <v>429</v>
       </c>
-      <c r="Y17" s="13" t="s">
+      <c r="AA17" s="13" t="s">
         <v>429</v>
       </c>
-      <c r="Z17" s="13" t="s">
-        <v>430</v>
-      </c>
-      <c r="AA17" s="13" t="s">
-        <v>430</v>
-      </c>
       <c r="AB17" s="13" t="s">
+        <v>418</v>
+      </c>
+      <c r="AC17" s="13" t="s">
+        <v>418</v>
+      </c>
+      <c r="AD17" s="13" t="s">
         <v>419</v>
       </c>
-      <c r="AC17" s="13" t="s">
+      <c r="AE17" s="13" t="s">
         <v>419</v>
       </c>
-      <c r="AD17" s="13" t="s">
+      <c r="AF17" s="13" t="s">
         <v>420</v>
       </c>
-      <c r="AE17" s="13" t="s">
+      <c r="AG17" s="13" t="s">
         <v>420</v>
       </c>
-      <c r="AF17" s="13" t="s">
+      <c r="AH17" s="13" t="s">
         <v>421</v>
       </c>
-      <c r="AG17" s="13" t="s">
+      <c r="AI17" s="13" t="s">
         <v>421</v>
       </c>
-      <c r="AH17" s="13" t="s">
+      <c r="AJ17" s="13" t="s">
         <v>422</v>
       </c>
-      <c r="AI17" s="13" t="s">
+      <c r="AK17" s="13" t="s">
         <v>422</v>
       </c>
-      <c r="AJ17" s="13" t="s">
+      <c r="AL17" s="13" t="s">
         <v>423</v>
       </c>
-      <c r="AK17" s="13" t="s">
+      <c r="AM17" s="13" t="s">
         <v>423</v>
       </c>
-      <c r="AL17" s="13" t="s">
+      <c r="AN17" s="13" t="s">
         <v>424</v>
       </c>
-      <c r="AM17" s="13" t="s">
+      <c r="AO17" s="13" t="s">
         <v>424</v>
       </c>
-      <c r="AN17" s="13" t="s">
+      <c r="AP17" s="13" t="s">
         <v>425</v>
       </c>
-      <c r="AO17" s="13" t="s">
+      <c r="AQ17" s="13" t="s">
         <v>425</v>
       </c>
-      <c r="AP17" s="13" t="s">
+      <c r="AR17" s="13" t="s">
         <v>426</v>
       </c>
-      <c r="AQ17" s="13" t="s">
+      <c r="AS17" s="13" t="s">
         <v>426</v>
       </c>
-      <c r="AR17" s="13" t="s">
+      <c r="AT17" s="13" t="s">
         <v>427</v>
       </c>
-      <c r="AS17" s="13" t="s">
+      <c r="AU17" s="13" t="s">
         <v>427</v>
       </c>
-      <c r="AT17" s="13" t="s">
+      <c r="AV17" s="13" t="s">
         <v>428</v>
       </c>
-      <c r="AU17" s="13" t="s">
+      <c r="AW17" s="13" t="s">
         <v>428</v>
       </c>
-      <c r="AV17" s="13" t="s">
+      <c r="AX17" s="13" t="s">
         <v>429</v>
       </c>
-      <c r="AW17" s="13" t="s">
+      <c r="AY17" s="13" t="s">
         <v>429</v>
       </c>
-      <c r="AX17" s="13" t="s">
-        <v>430</v>
-      </c>
-      <c r="AY17" s="13" t="s">
-        <v>430</v>
-      </c>
       <c r="AZ17" s="13" t="s">
+        <v>418</v>
+      </c>
+      <c r="BA17" s="13" t="s">
+        <v>418</v>
+      </c>
+      <c r="BB17" s="13" t="s">
         <v>419</v>
       </c>
-      <c r="BA17" s="13" t="s">
+      <c r="BC17" s="13" t="s">
         <v>419</v>
       </c>
-      <c r="BB17" s="13" t="s">
+      <c r="BD17" s="13" t="s">
         <v>420</v>
       </c>
-      <c r="BC17" s="13" t="s">
+      <c r="BE17" s="13" t="s">
         <v>420</v>
       </c>
-      <c r="BD17" s="13" t="s">
+      <c r="BF17" s="13" t="s">
         <v>421</v>
       </c>
-      <c r="BE17" s="13" t="s">
+      <c r="BG17" s="13" t="s">
         <v>421</v>
       </c>
-      <c r="BF17" s="13" t="s">
+      <c r="BH17" s="13" t="s">
         <v>422</v>
       </c>
-      <c r="BG17" s="13" t="s">
+      <c r="BI17" s="13" t="s">
         <v>422</v>
       </c>
-      <c r="BH17" s="13" t="s">
+      <c r="BJ17" s="13" t="s">
         <v>423</v>
       </c>
-      <c r="BI17" s="13" t="s">
+      <c r="BK17" s="13" t="s">
         <v>423</v>
       </c>
-      <c r="BJ17" s="13" t="s">
+      <c r="BL17" s="13" t="s">
         <v>424</v>
       </c>
-      <c r="BK17" s="13" t="s">
+      <c r="BM17" s="13" t="s">
         <v>424</v>
       </c>
-      <c r="BL17" s="13" t="s">
+      <c r="BN17" s="13" t="s">
         <v>425</v>
       </c>
-      <c r="BM17" s="13" t="s">
+      <c r="BO17" s="13" t="s">
         <v>425</v>
       </c>
-      <c r="BN17" s="13" t="s">
+      <c r="BP17" s="13" t="s">
         <v>426</v>
       </c>
-      <c r="BO17" s="13" t="s">
+      <c r="BQ17" s="13" t="s">
         <v>426</v>
       </c>
-      <c r="BP17" s="13" t="s">
+      <c r="BR17" s="13" t="s">
         <v>427</v>
       </c>
-      <c r="BQ17" s="13" t="s">
+      <c r="BS17" s="13" t="s">
         <v>427</v>
       </c>
-      <c r="BR17" s="13" t="s">
+      <c r="BT17" s="13" t="s">
         <v>428</v>
       </c>
-      <c r="BS17" s="13" t="s">
+      <c r="BU17" s="13" t="s">
         <v>428</v>
       </c>
-      <c r="BT17" s="13" t="s">
+      <c r="BV17" s="13" t="s">
         <v>429</v>
       </c>
-      <c r="BU17" s="13" t="s">
+      <c r="BW17" s="13" t="s">
         <v>429</v>
       </c>
-      <c r="BV17" s="13" t="s">
-        <v>430</v>
-      </c>
-      <c r="BW17" s="13" t="s">
-        <v>430</v>
-      </c>
       <c r="BX17" s="13" t="s">
+        <v>418</v>
+      </c>
+      <c r="BY17" s="13" t="s">
+        <v>418</v>
+      </c>
+      <c r="BZ17" s="13" t="s">
         <v>419</v>
       </c>
-      <c r="BY17" s="13" t="s">
+      <c r="CA17" s="13" t="s">
         <v>419</v>
       </c>
-      <c r="BZ17" s="13" t="s">
+      <c r="CB17" s="13" t="s">
         <v>420</v>
       </c>
-      <c r="CA17" s="13" t="s">
+      <c r="CC17" s="13" t="s">
         <v>420</v>
       </c>
-      <c r="CB17" s="13" t="s">
+      <c r="CD17" s="13" t="s">
         <v>421</v>
       </c>
-      <c r="CC17" s="13" t="s">
+      <c r="CE17" s="13" t="s">
         <v>421</v>
       </c>
-      <c r="CD17" s="13" t="s">
+      <c r="CF17" s="13" t="s">
         <v>422</v>
       </c>
-      <c r="CE17" s="13" t="s">
+      <c r="CG17" s="13" t="s">
         <v>422</v>
       </c>
-      <c r="CF17" s="13" t="s">
+      <c r="CH17" s="13" t="s">
         <v>423</v>
       </c>
-      <c r="CG17" s="13" t="s">
+      <c r="CI17" s="13" t="s">
         <v>423</v>
       </c>
-      <c r="CH17" s="13" t="s">
+      <c r="CJ17" s="13" t="s">
         <v>424</v>
       </c>
-      <c r="CI17" s="13" t="s">
+      <c r="CK17" s="13" t="s">
         <v>424</v>
       </c>
-      <c r="CJ17" s="13" t="s">
-        <v>425</v>
-      </c>
     </row>
-    <row r="18" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A18" s="17"/>
       <c r="B18" s="17"/>
       <c r="C18" s="17"/>
@@ -2723,8 +2729,11 @@
       <c r="CJ18" s="14">
         <v>1</v>
       </c>
+      <c r="CK18" s="14">
+        <v>2</v>
+      </c>
     </row>
-    <row r="19" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>0</v>
       </c>
@@ -2989,8 +2998,11 @@
       <c r="CJ19" s="10">
         <v>4.0872321974383397E-3</v>
       </c>
+      <c r="CK19" s="10">
+        <v>9.741110175071066E-3</v>
+      </c>
     </row>
-    <row r="20" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>0</v>
       </c>
@@ -3253,8 +3265,11 @@
       <c r="CJ20" s="10">
         <v>1.5022330491270885E-2</v>
       </c>
+      <c r="CK20" s="10">
+        <v>-2.5058333333333405E-2</v>
+      </c>
     </row>
-    <row r="21" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>0</v>
       </c>
@@ -3519,8 +3534,11 @@
       <c r="CJ21" s="10">
         <v>5.3067341473602703E-3</v>
       </c>
+      <c r="CK21" s="10">
+        <v>7.0871722182848096E-3</v>
+      </c>
     </row>
-    <row r="22" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>0</v>
       </c>
@@ -3785,8 +3803,11 @@
       <c r="CJ22" s="10">
         <v>1.5276336274000935E-2</v>
       </c>
+      <c r="CK22" s="10">
+        <v>5.670383030380588E-4</v>
+      </c>
     </row>
-    <row r="23" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
         <v>0</v>
       </c>
@@ -4051,8 +4072,11 @@
       <c r="CJ23" s="10">
         <v>5.1883600270696828E-3</v>
       </c>
+      <c r="CK23" s="10">
+        <v>-4.4415769000599736E-3</v>
+      </c>
     </row>
-    <row r="24" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
         <v>0</v>
       </c>
@@ -4317,8 +4341,11 @@
       <c r="CJ24" s="10">
         <v>-1.4007477184790895E-2</v>
       </c>
+      <c r="CK24" s="10">
+        <v>9.396473217981649E-3</v>
+      </c>
     </row>
-    <row r="25" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>0</v>
       </c>
@@ -4583,8 +4610,11 @@
       <c r="CJ25" s="10">
         <v>1.57643418075335E-2</v>
       </c>
+      <c r="CK25" s="10">
+        <v>5.0531108981761719E-3</v>
+      </c>
     </row>
-    <row r="26" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
         <v>0</v>
       </c>
@@ -4849,8 +4879,11 @@
       <c r="CJ26" s="10">
         <v>2.5563652926440472E-2</v>
       </c>
+      <c r="CK26" s="10">
+        <v>2.947077904053419E-2</v>
+      </c>
     </row>
-    <row r="27" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>0</v>
       </c>
@@ -5115,8 +5148,11 @@
       <c r="CJ27" s="10">
         <v>6.1005204483173259E-3</v>
       </c>
+      <c r="CK27" s="10">
+        <v>1.4843402107667103E-5</v>
+      </c>
     </row>
-    <row r="28" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
         <v>0</v>
       </c>
@@ -5381,8 +5417,11 @@
       <c r="CJ28" s="10">
         <v>6.8037576441938086E-2</v>
       </c>
+      <c r="CK28" s="10">
+        <v>1.058538045589752E-2</v>
+      </c>
     </row>
-    <row r="29" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
         <v>0</v>
       </c>
@@ -5647,8 +5686,11 @@
       <c r="CJ29" s="10">
         <v>2.0227705734128021E-2</v>
       </c>
+      <c r="CK29" s="10">
+        <v>1.8900460086896942E-3</v>
+      </c>
     </row>
-    <row r="30" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
         <v>0</v>
       </c>
@@ -5913,8 +5955,11 @@
       <c r="CJ30" s="10">
         <v>6.3840470554479278E-3</v>
       </c>
+      <c r="CK30" s="10">
+        <v>4.4111823869485978E-3</v>
+      </c>
     </row>
-    <row r="31" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
         <v>0</v>
       </c>
@@ -6179,8 +6224,11 @@
       <c r="CJ31" s="10">
         <v>-9.6949487464492723E-3</v>
       </c>
+      <c r="CK31" s="10">
+        <v>-2.4240818108124396E-3</v>
+      </c>
     </row>
-    <row r="32" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
         <v>0</v>
       </c>
@@ -6445,8 +6493,11 @@
       <c r="CJ32" s="10">
         <v>1.0813527570687764E-3</v>
       </c>
+      <c r="CK32" s="10">
+        <v>1.1501684935987688E-2</v>
+      </c>
     </row>
-    <row r="33" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
         <v>0</v>
       </c>
@@ -6711,8 +6762,11 @@
       <c r="CJ33" s="10">
         <v>2.0548108857190828E-2</v>
       </c>
+      <c r="CK33" s="10">
+        <v>1.6763046379322466E-2</v>
+      </c>
     </row>
-    <row r="34" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
         <v>0</v>
       </c>
@@ -6977,8 +7031,11 @@
       <c r="CJ34" s="10">
         <v>1.5079839946150031E-2</v>
       </c>
+      <c r="CK34" s="10">
+        <v>-2.4130340679886508E-3</v>
+      </c>
     </row>
-    <row r="35" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
         <v>0</v>
       </c>
@@ -7243,8 +7300,11 @@
       <c r="CJ35" s="10">
         <v>5.1787243984113829E-3</v>
       </c>
+      <c r="CK35" s="10">
+        <v>0</v>
+      </c>
     </row>
-    <row r="36" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
         <v>0</v>
       </c>
@@ -7509,8 +7569,11 @@
       <c r="CJ36" s="10">
         <v>2.783236271392342E-2</v>
       </c>
+      <c r="CK36" s="10">
+        <v>0.11102614015572865</v>
+      </c>
     </row>
-    <row r="37" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
         <v>0</v>
       </c>
@@ -7775,8 +7838,11 @@
       <c r="CJ37" s="10">
         <v>-3.8398424680013199E-2</v>
       </c>
+      <c r="CK37" s="10">
+        <v>4.2229251644052335E-2</v>
+      </c>
     </row>
-    <row r="38" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
         <v>0</v>
       </c>
@@ -8041,8 +8107,11 @@
       <c r="CJ38" s="10">
         <v>7.4237827583232274E-3</v>
       </c>
+      <c r="CK38" s="10">
+        <v>-3.9553342152361615E-2</v>
+      </c>
     </row>
-    <row r="39" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
         <v>0</v>
       </c>
@@ -8307,8 +8376,11 @@
       <c r="CJ39" s="10">
         <v>0.48366555924695454</v>
       </c>
+      <c r="CK39" s="10">
+        <v>0.25993655532748661</v>
+      </c>
     </row>
-    <row r="40" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
         <v>0</v>
       </c>
@@ -8573,8 +8645,11 @@
       <c r="CJ40" s="10">
         <v>3.8401940308563365E-3</v>
       </c>
+      <c r="CK40" s="10">
+        <v>2.1267710663683825E-2</v>
+      </c>
     </row>
-    <row r="41" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
         <v>0</v>
       </c>
@@ -8839,8 +8914,11 @@
       <c r="CJ41" s="10">
         <v>1.0318365044481803E-2</v>
       </c>
+      <c r="CK41" s="10">
+        <v>0.11929300096546447</v>
+      </c>
     </row>
-    <row r="42" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
         <v>0</v>
       </c>
@@ -9105,8 +9183,11 @@
       <c r="CJ42" s="10">
         <v>-1.2069372345446139E-2</v>
       </c>
+      <c r="CK42" s="10">
+        <v>-2.6738478808650767E-2</v>
+      </c>
     </row>
-    <row r="43" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
         <v>0</v>
       </c>
@@ -9371,8 +9452,11 @@
       <c r="CJ43" s="10">
         <v>-3.7958271039784108E-2</v>
       </c>
+      <c r="CK43" s="10">
+        <v>-1.6221085348076092E-2</v>
+      </c>
     </row>
-    <row r="44" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
         <v>0</v>
       </c>
@@ -9637,8 +9721,11 @@
       <c r="CJ44" s="10">
         <v>-8.7542062024433931E-2</v>
       </c>
+      <c r="CK44" s="10">
+        <v>4.9619176557555322E-2</v>
+      </c>
     </row>
-    <row r="45" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
         <v>0</v>
       </c>
@@ -9903,8 +9990,11 @@
       <c r="CJ45" s="10">
         <v>-5.5545133479604214E-3</v>
       </c>
+      <c r="CK45" s="10">
+        <v>4.486474959400244E-3</v>
+      </c>
     </row>
-    <row r="46" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
         <v>0</v>
       </c>
@@ -10169,8 +10259,11 @@
       <c r="CJ46" s="10">
         <v>-9.9014216308374703E-2</v>
       </c>
+      <c r="CK46" s="10">
+        <v>2.1057124564276553E-3</v>
+      </c>
     </row>
-    <row r="47" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
         <v>0</v>
       </c>
@@ -10435,8 +10528,11 @@
       <c r="CJ47" s="10">
         <v>6.7076231345130077E-2</v>
       </c>
+      <c r="CK47" s="10">
+        <v>2.5566619627796827E-2</v>
+      </c>
     </row>
-    <row r="48" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="s">
         <v>0</v>
       </c>
@@ -10701,8 +10797,11 @@
       <c r="CJ48" s="10">
         <v>-1.2764318350866E-2</v>
       </c>
+      <c r="CK48" s="10">
+        <v>1.1234141025468602E-2</v>
+      </c>
     </row>
-    <row r="49" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="s">
         <v>0</v>
       </c>
@@ -10967,8 +11066,11 @@
       <c r="CJ49" s="10">
         <v>7.9095000308242458E-2</v>
       </c>
+      <c r="CK49" s="10">
+        <v>0.10886400568758892</v>
+      </c>
     </row>
-    <row r="50" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A50" s="7" t="s">
         <v>0</v>
       </c>
@@ -11233,8 +11335,11 @@
       <c r="CJ50" s="10">
         <v>-2.4835079549864192E-3</v>
       </c>
+      <c r="CK50" s="10">
+        <v>-1.7544542130242036E-2</v>
+      </c>
     </row>
-    <row r="51" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
         <v>0</v>
       </c>
@@ -11499,8 +11604,11 @@
       <c r="CJ51" s="10">
         <v>1.8931442521496811E-2</v>
       </c>
+      <c r="CK51" s="10">
+        <v>-2.5561396949417281E-3</v>
+      </c>
     </row>
-    <row r="52" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A52" s="7" t="s">
         <v>0</v>
       </c>
@@ -11765,8 +11873,11 @@
       <c r="CJ52" s="10">
         <v>-2.2984955301984522E-3</v>
       </c>
+      <c r="CK52" s="10">
+        <v>-4.3344047933417951E-3</v>
+      </c>
     </row>
-    <row r="53" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A53" s="7" t="s">
         <v>0</v>
       </c>
@@ -12031,8 +12142,11 @@
       <c r="CJ53" s="10">
         <v>4.1401826411999743E-3</v>
       </c>
+      <c r="CK53" s="10">
+        <v>4.7278353268254136E-3</v>
+      </c>
     </row>
-    <row r="54" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A54" s="7" t="s">
         <v>0</v>
       </c>
@@ -12297,8 +12411,11 @@
       <c r="CJ54" s="10">
         <v>-3.2897591454515984E-3</v>
       </c>
+      <c r="CK54" s="10">
+        <v>-3.253126484090596E-3</v>
+      </c>
     </row>
-    <row r="55" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A55" s="7" t="s">
         <v>0</v>
       </c>
@@ -12563,8 +12680,11 @@
       <c r="CJ55" s="10">
         <v>8.5741190464390105E-3</v>
       </c>
+      <c r="CK55" s="10">
+        <v>1.6240786240786287E-2</v>
+      </c>
     </row>
-    <row r="56" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A56" s="7" t="s">
         <v>0</v>
       </c>
@@ -12829,8 +12949,11 @@
       <c r="CJ56" s="10">
         <v>3.2067544315953711E-2</v>
       </c>
+      <c r="CK56" s="10">
+        <v>2.5953381616290239E-2</v>
+      </c>
     </row>
-    <row r="57" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
         <v>0</v>
       </c>
@@ -13095,8 +13218,11 @@
       <c r="CJ57" s="10">
         <v>-1.4377985102328794E-2</v>
       </c>
+      <c r="CK57" s="10">
+        <v>-4.870945063774168E-3</v>
+      </c>
     </row>
-    <row r="58" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A58" s="7" t="s">
         <v>0</v>
       </c>
@@ -13361,8 +13487,11 @@
       <c r="CJ58" s="10">
         <v>6.1216972792456747E-2</v>
       </c>
+      <c r="CK58" s="10">
+        <v>0.20850591202536028</v>
+      </c>
     </row>
-    <row r="59" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A59" s="7" t="s">
         <v>0</v>
       </c>
@@ -13627,8 +13756,11 @@
       <c r="CJ59" s="10">
         <v>3.4267729216688414E-2</v>
       </c>
+      <c r="CK59" s="10">
+        <v>3.0022787694645059E-2</v>
+      </c>
     </row>
-    <row r="60" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A60" s="7" t="s">
         <v>0</v>
       </c>
@@ -13893,8 +14025,11 @@
       <c r="CJ60" s="10">
         <v>-6.7401009721700711E-2</v>
       </c>
+      <c r="CK60" s="10">
+        <v>0.16156337801320708</v>
+      </c>
     </row>
-    <row r="61" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A61" s="7" t="s">
         <v>0</v>
       </c>
@@ -14159,8 +14294,11 @@
       <c r="CJ61" s="10">
         <v>4.2054927729156644E-2</v>
       </c>
+      <c r="CK61" s="10">
+        <v>-0.12711607195437391</v>
+      </c>
     </row>
-    <row r="62" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A62" s="7" t="s">
         <v>0</v>
       </c>
@@ -14425,8 +14563,11 @@
       <c r="CJ62" s="10">
         <v>-0.10926514001545906</v>
       </c>
+      <c r="CK62" s="10">
+        <v>-0.13958995483439285</v>
+      </c>
     </row>
-    <row r="63" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A63" s="7" t="s">
         <v>0</v>
       </c>
@@ -14691,8 +14832,11 @@
       <c r="CJ63" s="10">
         <v>0.1278368053264114</v>
       </c>
+      <c r="CK63" s="10">
+        <v>1.8659263641742641E-3</v>
+      </c>
     </row>
-    <row r="64" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A64" s="7" t="s">
         <v>0</v>
       </c>
@@ -14957,8 +15101,11 @@
       <c r="CJ64" s="10">
         <v>-0.17636112541547688</v>
       </c>
+      <c r="CK64" s="10">
+        <v>-0.26243694493783309</v>
+      </c>
     </row>
-    <row r="65" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A65" s="7" t="s">
         <v>0</v>
       </c>
@@ -15223,8 +15370,11 @@
       <c r="CJ65" s="10">
         <v>-5.605897132164861E-3</v>
       </c>
+      <c r="CK65" s="10">
+        <v>-6.2467753194330511E-2</v>
+      </c>
     </row>
-    <row r="66" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A66" s="7" t="s">
         <v>0</v>
       </c>
@@ -15489,8 +15639,11 @@
       <c r="CJ66" s="10">
         <v>-2.1892308649743786E-2</v>
       </c>
+      <c r="CK66" s="10">
+        <v>-4.7649009197531234E-3</v>
+      </c>
     </row>
-    <row r="67" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A67" s="7" t="s">
         <v>0</v>
       </c>
@@ -15755,8 +15908,11 @@
       <c r="CJ67" s="10">
         <v>8.5855199252997672E-3</v>
       </c>
+      <c r="CK67" s="10">
+        <v>-2.3952877141312556E-2</v>
+      </c>
     </row>
-    <row r="68" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A68" s="7" t="s">
         <v>0</v>
       </c>
@@ -16021,8 +16177,11 @@
       <c r="CJ68" s="10">
         <v>-0.12870631450966197</v>
       </c>
+      <c r="CK68" s="10">
+        <v>-7.9111443636881718E-2</v>
+      </c>
     </row>
-    <row r="69" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A69" s="7" t="s">
         <v>0</v>
       </c>
@@ -16287,8 +16446,11 @@
       <c r="CJ69" s="10">
         <v>9.7609352576742303E-2</v>
       </c>
+      <c r="CK69" s="10">
+        <v>7.0380015944724983E-2</v>
+      </c>
     </row>
-    <row r="70" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A70" s="7" t="s">
         <v>0</v>
       </c>
@@ -16553,8 +16715,11 @@
       <c r="CJ70" s="10">
         <v>-4.1319972804092386E-2</v>
       </c>
+      <c r="CK70" s="10">
+        <v>-3.6895384277669474E-2</v>
+      </c>
     </row>
-    <row r="71" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A71" s="7" t="s">
         <v>0</v>
       </c>
@@ -16819,8 +16984,11 @@
       <c r="CJ71" s="10">
         <v>-0.1505696460578646</v>
       </c>
+      <c r="CK71" s="10">
+        <v>-0.13805470023546462</v>
+      </c>
     </row>
-    <row r="72" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A72" s="7" t="s">
         <v>0</v>
       </c>
@@ -17085,8 +17253,11 @@
       <c r="CJ72" s="10">
         <v>1.9899340409894828E-2</v>
       </c>
+      <c r="CK72" s="10">
+        <v>4.0545471130165156E-2</v>
+      </c>
     </row>
-    <row r="73" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A73" s="7" t="s">
         <v>0</v>
       </c>
@@ -17351,8 +17522,11 @@
       <c r="CJ73" s="10">
         <v>4.5488225250474024E-3</v>
       </c>
+      <c r="CK73" s="10">
+        <v>9.5567342907165731E-4</v>
+      </c>
     </row>
-    <row r="74" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A74" s="7" t="s">
         <v>0</v>
       </c>
@@ -17617,8 +17791,11 @@
       <c r="CJ74" s="10">
         <v>-2.3213954086371835E-3</v>
       </c>
+      <c r="CK74" s="10">
+        <v>-1.0560077893998265E-2</v>
+      </c>
     </row>
-    <row r="75" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A75" s="7" t="s">
         <v>0</v>
       </c>
@@ -17883,8 +18060,11 @@
       <c r="CJ75" s="10">
         <v>1.200869682464778E-2</v>
       </c>
+      <c r="CK75" s="10">
+        <v>-2.0401535527817538E-3</v>
+      </c>
     </row>
-    <row r="76" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A76" s="7" t="s">
         <v>0</v>
       </c>
@@ -18149,8 +18329,11 @@
       <c r="CJ76" s="10">
         <v>8.680438226968068E-3</v>
       </c>
+      <c r="CK76" s="10">
+        <v>-2.3449887961646265E-3</v>
+      </c>
     </row>
-    <row r="77" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A77" s="7" t="s">
         <v>0</v>
       </c>
@@ -18415,8 +18598,11 @@
       <c r="CJ77" s="10">
         <v>7.1354198566790927E-3</v>
       </c>
+      <c r="CK77" s="10">
+        <v>5.2604372548423761E-3</v>
+      </c>
     </row>
-    <row r="78" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A78" s="7" t="s">
         <v>0</v>
       </c>
@@ -18681,8 +18867,11 @@
       <c r="CJ78" s="10">
         <v>1.3019663474800103E-2</v>
       </c>
+      <c r="CK78" s="10">
+        <v>-2.8707687280704608E-3</v>
+      </c>
     </row>
-    <row r="79" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A79" s="7" t="s">
         <v>0</v>
       </c>
@@ -18947,8 +19136,11 @@
       <c r="CJ79" s="10">
         <v>2.5529840837661189E-2</v>
       </c>
+      <c r="CK79" s="10">
+        <v>1.5118489626011922E-2</v>
+      </c>
     </row>
-    <row r="80" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A80" s="7" t="s">
         <v>0</v>
       </c>
@@ -19213,8 +19405,11 @@
       <c r="CJ80" s="10">
         <v>6.0152747426047704E-3</v>
       </c>
+      <c r="CK80" s="10">
+        <v>-3.0531046117555638E-3</v>
+      </c>
     </row>
-    <row r="81" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A81" s="7" t="s">
         <v>0</v>
       </c>
@@ -19479,8 +19674,11 @@
       <c r="CJ81" s="10">
         <v>-2.0867778544708671E-4</v>
       </c>
+      <c r="CK81" s="10">
+        <v>1.1720506068975123E-3</v>
+      </c>
     </row>
-    <row r="82" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A82" s="7" t="s">
         <v>0</v>
       </c>
@@ -19745,8 +19943,11 @@
       <c r="CJ82" s="10">
         <v>2.7329688242885286E-2</v>
       </c>
+      <c r="CK82" s="10">
+        <v>-5.0907828731519E-3</v>
+      </c>
     </row>
-    <row r="83" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A83" s="7" t="s">
         <v>0</v>
       </c>
@@ -20011,8 +20212,11 @@
       <c r="CJ83" s="10">
         <v>3.5407742282218546E-3</v>
       </c>
+      <c r="CK83" s="10">
+        <v>4.032321577645881E-3</v>
+      </c>
     </row>
-    <row r="84" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A84" s="7" t="s">
         <v>0</v>
       </c>
@@ -20277,8 +20481,11 @@
       <c r="CJ84" s="10">
         <v>1.9828829393693237E-3</v>
       </c>
+      <c r="CK84" s="10">
+        <v>-3.1287887676478832E-5</v>
+      </c>
     </row>
-    <row r="85" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A85" s="7" t="s">
         <v>0</v>
       </c>
@@ -20543,8 +20750,11 @@
       <c r="CJ85" s="10">
         <v>1.2398978204687605E-2</v>
       </c>
+      <c r="CK85" s="10">
+        <v>-3.9102270882829249E-4</v>
+      </c>
     </row>
-    <row r="86" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A86" s="7" t="s">
         <v>0</v>
       </c>
@@ -20809,8 +21019,11 @@
       <c r="CJ86" s="10">
         <v>1.4240281008204292E-4</v>
       </c>
+      <c r="CK86" s="10">
+        <v>1.8889416231611111E-3</v>
+      </c>
     </row>
-    <row r="87" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A87" s="7" t="s">
         <v>0</v>
       </c>
@@ -21075,8 +21288,11 @@
       <c r="CJ87" s="10">
         <v>5.3438661710036861E-3</v>
       </c>
+      <c r="CK87" s="10">
+        <v>1.9809171646478774E-4</v>
+      </c>
     </row>
-    <row r="88" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A88" s="7" t="s">
         <v>0</v>
       </c>
@@ -21341,8 +21557,11 @@
       <c r="CJ88" s="10">
         <v>1.4989712175620618E-2</v>
       </c>
+      <c r="CK88" s="10">
+        <v>-2.8056760985686324E-3</v>
+      </c>
     </row>
-    <row r="89" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A89" s="7" t="s">
         <v>0</v>
       </c>
@@ -21607,8 +21826,11 @@
       <c r="CJ89" s="10">
         <v>1.0041479289448985E-2</v>
       </c>
+      <c r="CK89" s="10">
+        <v>1.2163708038087639E-2</v>
+      </c>
     </row>
-    <row r="90" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A90" s="7" t="s">
         <v>0</v>
       </c>
@@ -21873,8 +22095,11 @@
       <c r="CJ90" s="10">
         <v>1.2022236025821531E-2</v>
       </c>
+      <c r="CK90" s="10">
+        <v>1.5468883536632561E-2</v>
+      </c>
     </row>
-    <row r="91" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A91" s="7" t="s">
         <v>0</v>
       </c>
@@ -22139,8 +22364,11 @@
       <c r="CJ91" s="10">
         <v>0</v>
       </c>
+      <c r="CK91" s="10">
+        <v>1.4236649247280075E-2</v>
+      </c>
     </row>
-    <row r="92" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A92" s="7" t="s">
         <v>0</v>
       </c>
@@ -22405,8 +22633,11 @@
       <c r="CJ92" s="10">
         <v>7.096826821110902E-3</v>
       </c>
+      <c r="CK92" s="10">
+        <v>8.0187915114215969E-4</v>
+      </c>
     </row>
-    <row r="93" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A93" s="7" t="s">
         <v>0</v>
       </c>
@@ -22671,8 +22902,11 @@
       <c r="CJ93" s="10">
         <v>-4.2574712643678181E-2</v>
       </c>
+      <c r="CK93" s="10">
+        <v>-2.0889358432577554E-3</v>
+      </c>
     </row>
-    <row r="94" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A94" s="7" t="s">
         <v>0</v>
       </c>
@@ -22937,8 +23171,11 @@
       <c r="CJ94" s="10">
         <v>1.5622538051870194E-2</v>
       </c>
+      <c r="CK94" s="10">
+        <v>6.2366675716558628E-3</v>
+      </c>
     </row>
-    <row r="95" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A95" s="7" t="s">
         <v>0</v>
       </c>
@@ -23203,8 +23440,11 @@
       <c r="CJ95" s="10">
         <v>1.6026982026213554E-2</v>
       </c>
+      <c r="CK95" s="10">
+        <v>-6.2441172515800281E-3</v>
+      </c>
     </row>
-    <row r="96" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A96" s="7" t="s">
         <v>0</v>
       </c>
@@ -23469,8 +23709,11 @@
       <c r="CJ96" s="10">
         <v>3.1868245968547093E-3</v>
       </c>
+      <c r="CK96" s="10">
+        <v>-1.9187592554258392E-3</v>
+      </c>
     </row>
-    <row r="97" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A97" s="7" t="s">
         <v>0</v>
       </c>
@@ -23735,8 +23978,11 @@
       <c r="CJ97" s="10">
         <v>2.1417952443745225E-3</v>
       </c>
+      <c r="CK97" s="10">
+        <v>9.7222455034629007E-4</v>
+      </c>
     </row>
-    <row r="98" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A98" s="7" t="s">
         <v>0</v>
       </c>
@@ -24001,8 +24247,11 @@
       <c r="CJ98" s="10">
         <v>-2.079218213951517E-3</v>
       </c>
+      <c r="CK98" s="10">
+        <v>1.0851824842865732E-3</v>
+      </c>
     </row>
-    <row r="99" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A99" s="7" t="s">
         <v>0</v>
       </c>
@@ -24267,8 +24516,11 @@
       <c r="CJ99" s="10">
         <v>8.7783814562625295E-4</v>
       </c>
+      <c r="CK99" s="10">
+        <v>-4.2905229222965913E-3</v>
+      </c>
     </row>
-    <row r="100" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A100" s="7" t="s">
         <v>0</v>
       </c>
@@ -24533,8 +24785,11 @@
       <c r="CJ100" s="10">
         <v>2.5736211629667771E-4</v>
       </c>
+      <c r="CK100" s="10">
+        <v>1.2841404367792686E-2</v>
+      </c>
     </row>
-    <row r="101" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A101" s="7" t="s">
         <v>0</v>
       </c>
@@ -24799,8 +25054,11 @@
       <c r="CJ101" s="10">
         <v>3.3261077518493831E-3</v>
       </c>
+      <c r="CK101" s="10">
+        <v>2.9634553819778642E-2</v>
+      </c>
     </row>
-    <row r="102" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A102" s="7" t="s">
         <v>0</v>
       </c>
@@ -25065,8 +25323,11 @@
       <c r="CJ102" s="10">
         <v>-5.7446759025964189E-3</v>
       </c>
+      <c r="CK102" s="10">
+        <v>-1.0448506019586912E-2</v>
+      </c>
     </row>
-    <row r="103" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A103" s="7" t="s">
         <v>0</v>
       </c>
@@ -25331,8 +25592,11 @@
       <c r="CJ103" s="10">
         <v>4.136163420660921E-3</v>
       </c>
+      <c r="CK103" s="10">
+        <v>4.4706655560053932E-3</v>
+      </c>
     </row>
-    <row r="104" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A104" s="7" t="s">
         <v>0</v>
       </c>
@@ -25597,8 +25861,11 @@
       <c r="CJ104" s="10">
         <v>-6.9121875692079726E-6</v>
       </c>
+      <c r="CK104" s="10">
+        <v>5.159292463589793E-2</v>
+      </c>
     </row>
-    <row r="105" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A105" s="7" t="s">
         <v>0</v>
       </c>
@@ -25863,8 +26130,11 @@
       <c r="CJ105" s="10">
         <v>1.2436613389819051E-3</v>
       </c>
+      <c r="CK105" s="10">
+        <v>2.1789128675262504E-2</v>
+      </c>
     </row>
-    <row r="106" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A106" s="7" t="s">
         <v>0</v>
       </c>
@@ -26129,8 +26399,11 @@
       <c r="CJ106" s="10">
         <v>5.2565523536316494E-3</v>
       </c>
+      <c r="CK106" s="10">
+        <v>1.0741878734322974E-2</v>
+      </c>
     </row>
-    <row r="107" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A107" s="7" t="s">
         <v>0</v>
       </c>
@@ -26395,8 +26668,11 @@
       <c r="CJ107" s="10">
         <v>1.7874610938193314E-3</v>
       </c>
+      <c r="CK107" s="10">
+        <v>9.1166523155585821E-3</v>
+      </c>
     </row>
-    <row r="108" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A108" s="7" t="s">
         <v>0</v>
       </c>
@@ -26661,8 +26937,11 @@
       <c r="CJ108" s="10">
         <v>0</v>
       </c>
+      <c r="CK108" s="10">
+        <v>1.0984030908909315E-3</v>
+      </c>
     </row>
-    <row r="109" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A109" s="7" t="s">
         <v>0</v>
       </c>
@@ -26927,8 +27206,11 @@
       <c r="CJ109" s="10">
         <v>5.2612047994062827E-3</v>
       </c>
+      <c r="CK109" s="10">
+        <v>4.4297515237523566E-3</v>
+      </c>
     </row>
-    <row r="110" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A110" s="7" t="s">
         <v>0</v>
       </c>
@@ -27193,8 +27475,11 @@
       <c r="CJ110" s="10">
         <v>0</v>
       </c>
+      <c r="CK110" s="10">
+        <v>0</v>
+      </c>
     </row>
-    <row r="111" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A111" s="7" t="s">
         <v>0</v>
       </c>
@@ -27459,8 +27744,11 @@
       <c r="CJ111" s="10">
         <v>9.3684128347204521E-5</v>
       </c>
+      <c r="CK111" s="10">
+        <v>1.7197233454590899E-2</v>
+      </c>
     </row>
-    <row r="112" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A112" s="7" t="s">
         <v>0</v>
       </c>
@@ -27725,8 +28013,11 @@
       <c r="CJ112" s="10">
         <v>0</v>
       </c>
+      <c r="CK112" s="10">
+        <v>3.0642131737288469E-3</v>
+      </c>
     </row>
-    <row r="113" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A113" s="7" t="s">
         <v>0</v>
       </c>
@@ -27991,8 +28282,11 @@
       <c r="CJ113" s="10">
         <v>2.2107712765957466E-3</v>
       </c>
+      <c r="CK113" s="10">
+        <v>2.4049226278342051E-3</v>
+      </c>
     </row>
-    <row r="114" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A114" s="7" t="s">
         <v>0</v>
       </c>
@@ -28257,8 +28551,11 @@
       <c r="CJ114" s="10">
         <v>0</v>
       </c>
+      <c r="CK114" s="10">
+        <v>1.9268461545962401E-2</v>
+      </c>
     </row>
-    <row r="115" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A115" s="7" t="s">
         <v>0</v>
       </c>
@@ -28523,8 +28820,11 @@
       <c r="CJ115" s="10">
         <v>1.1261777086311264E-2</v>
       </c>
+      <c r="CK115" s="10">
+        <v>2.5435575443775393E-2</v>
+      </c>
     </row>
-    <row r="116" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A116" s="7" t="s">
         <v>0</v>
       </c>
@@ -28789,8 +29089,11 @@
       <c r="CJ116" s="10">
         <v>2.8597150876450428E-3</v>
       </c>
+      <c r="CK116" s="10">
+        <v>-2.7811515375543161E-3</v>
+      </c>
     </row>
-    <row r="117" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A117" s="7" t="s">
         <v>0</v>
       </c>
@@ -29055,8 +29358,11 @@
       <c r="CJ117" s="10">
         <v>1.0732379344058351E-2</v>
       </c>
+      <c r="CK117" s="10">
+        <v>1.0405903518220239E-3</v>
+      </c>
     </row>
-    <row r="118" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A118" s="7" t="s">
         <v>0</v>
       </c>
@@ -29321,8 +29627,11 @@
       <c r="CJ118" s="10">
         <v>2.4155325601595834E-3</v>
       </c>
+      <c r="CK118" s="10">
+        <v>3.6031653123125285E-3</v>
+      </c>
     </row>
-    <row r="119" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A119" s="7" t="s">
         <v>0</v>
       </c>
@@ -29587,8 +29896,11 @@
       <c r="CJ119" s="10">
         <v>-3.5124986409962311E-4</v>
       </c>
+      <c r="CK119" s="10">
+        <v>1.279166074072835E-2</v>
+      </c>
     </row>
-    <row r="120" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A120" s="7" t="s">
         <v>0</v>
       </c>
@@ -29853,8 +30165,11 @@
       <c r="CJ120" s="10">
         <v>5.7940175097276336E-2</v>
       </c>
+      <c r="CK120" s="10">
+        <v>3.5548039111052976E-3</v>
+      </c>
     </row>
-    <row r="121" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A121" s="7" t="s">
         <v>0</v>
       </c>
@@ -30119,8 +30434,11 @@
       <c r="CJ121" s="10">
         <v>4.6554820083092752E-2</v>
       </c>
+      <c r="CK121" s="10">
+        <v>7.897592033440759E-3</v>
+      </c>
     </row>
-    <row r="122" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A122" s="7" t="s">
         <v>0</v>
       </c>
@@ -30385,8 +30703,11 @@
       <c r="CJ122" s="10">
         <v>2.2384032410702526E-2</v>
       </c>
+      <c r="CK122" s="10">
+        <v>6.624796321937465E-3</v>
+      </c>
     </row>
-    <row r="123" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A123" s="7" t="s">
         <v>0</v>
       </c>
@@ -30651,8 +30972,11 @@
       <c r="CJ123" s="10">
         <v>5.6711492138155073E-3</v>
       </c>
+      <c r="CK123" s="10">
+        <v>8.8453849345555557E-3</v>
+      </c>
     </row>
-    <row r="124" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A124" s="7" t="s">
         <v>0</v>
       </c>
@@ -30917,8 +31241,11 @@
       <c r="CJ124" s="10">
         <v>-1.2322331658980445E-3</v>
       </c>
+      <c r="CK124" s="10">
+        <v>1.5216292399564679E-2</v>
+      </c>
     </row>
-    <row r="125" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A125" s="7" t="s">
         <v>0</v>
       </c>
@@ -31183,8 +31510,11 @@
       <c r="CJ125" s="10">
         <v>8.7722257835960438E-3</v>
       </c>
+      <c r="CK125" s="10">
+        <v>6.5972106090503857E-3</v>
+      </c>
     </row>
-    <row r="126" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A126" s="7" t="s">
         <v>0</v>
       </c>
@@ -31449,8 +31779,11 @@
       <c r="CJ126" s="10">
         <v>-8.6367719202007365E-6</v>
       </c>
+      <c r="CK126" s="10">
+        <v>1.6928219168617087E-3</v>
+      </c>
     </row>
-    <row r="127" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A127" s="7" t="s">
         <v>0</v>
       </c>
@@ -31715,8 +32048,11 @@
       <c r="CJ127" s="10">
         <v>1.4065095562330043E-2</v>
       </c>
+      <c r="CK127" s="10">
+        <v>-8.4606176250856535E-4</v>
+      </c>
     </row>
-    <row r="128" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A128" s="7" t="s">
         <v>0</v>
       </c>
@@ -31981,8 +32317,11 @@
       <c r="CJ128" s="10">
         <v>1.6682266145460645E-2</v>
       </c>
+      <c r="CK128" s="10">
+        <v>1.5921152388172821E-2</v>
+      </c>
     </row>
-    <row r="129" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A129" s="7" t="s">
         <v>0</v>
       </c>
@@ -32247,8 +32586,11 @@
       <c r="CJ129" s="10">
         <v>2.8773014585470325E-3</v>
       </c>
+      <c r="CK129" s="10">
+        <v>8.0043340912907546E-3</v>
+      </c>
     </row>
-    <row r="130" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A130" s="7" t="s">
         <v>0</v>
       </c>
@@ -32513,8 +32855,11 @@
       <c r="CJ130" s="10">
         <v>2.8589220122018366E-2</v>
       </c>
+      <c r="CK130" s="10">
+        <v>7.1421455557003632E-3</v>
+      </c>
     </row>
-    <row r="131" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A131" s="8" t="s">
         <v>0</v>
       </c>
@@ -32779,8 +33124,11 @@
       <c r="CJ131" s="10">
         <v>4.1131784995062759E-2</v>
       </c>
+      <c r="CK131" s="10">
+        <v>6.8408749747947972E-3</v>
+      </c>
     </row>
-    <row r="132" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A132" s="3" t="s">
         <v>147</v>
       </c>
@@ -33045,8 +33393,11 @@
       <c r="CJ132" s="10">
         <v>4.0865384615385025E-3</v>
       </c>
+      <c r="CK132" s="10">
+        <v>1.9336660466657829E-3</v>
+      </c>
     </row>
-    <row r="133" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A133" s="7" t="s">
         <v>147</v>
       </c>
@@ -33311,8 +33662,11 @@
       <c r="CJ133" s="10">
         <v>3.5485947221626235E-2</v>
       </c>
+      <c r="CK133" s="10">
+        <v>0</v>
+      </c>
     </row>
-    <row r="134" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A134" s="7" t="s">
         <v>147</v>
       </c>
@@ -33577,8 +33931,11 @@
       <c r="CJ134" s="10">
         <v>-1.051004099784536E-3</v>
       </c>
+      <c r="CK134" s="10">
+        <v>3.3684906136148163E-2</v>
+      </c>
     </row>
-    <row r="135" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A135" s="7" t="s">
         <v>147</v>
       </c>
@@ -33843,8 +34200,11 @@
       <c r="CJ135" s="10">
         <v>0</v>
       </c>
+      <c r="CK135" s="10">
+        <v>0</v>
+      </c>
     </row>
-    <row r="136" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A136" s="7" t="s">
         <v>147</v>
       </c>
@@ -34109,8 +34469,11 @@
       <c r="CJ136" s="10">
         <v>0</v>
       </c>
+      <c r="CK136" s="10">
+        <v>0</v>
+      </c>
     </row>
-    <row r="137" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A137" s="7" t="s">
         <v>147</v>
       </c>
@@ -34375,8 +34738,11 @@
       <c r="CJ137" s="10">
         <v>0</v>
       </c>
+      <c r="CK137" s="10">
+        <v>0</v>
+      </c>
     </row>
-    <row r="138" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A138" s="7" t="s">
         <v>147</v>
       </c>
@@ -34641,8 +35007,11 @@
       <c r="CJ138" s="10">
         <v>0</v>
       </c>
+      <c r="CK138" s="10">
+        <v>0</v>
+      </c>
     </row>
-    <row r="139" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A139" s="7" t="s">
         <v>147</v>
       </c>
@@ -34907,8 +35276,11 @@
       <c r="CJ139" s="10">
         <v>0</v>
       </c>
+      <c r="CK139" s="10">
+        <v>0</v>
+      </c>
     </row>
-    <row r="140" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A140" s="7" t="s">
         <v>147</v>
       </c>
@@ -35173,8 +35545,11 @@
       <c r="CJ140" s="10">
         <v>0</v>
       </c>
+      <c r="CK140" s="10">
+        <v>0</v>
+      </c>
     </row>
-    <row r="141" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A141" s="7" t="s">
         <v>147</v>
       </c>
@@ -35439,8 +35814,11 @@
       <c r="CJ141" s="10">
         <v>0</v>
       </c>
+      <c r="CK141" s="10">
+        <v>0</v>
+      </c>
     </row>
-    <row r="142" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A142" s="7" t="s">
         <v>147</v>
       </c>
@@ -35705,8 +36083,11 @@
       <c r="CJ142" s="10">
         <v>0</v>
       </c>
+      <c r="CK142" s="10">
+        <v>5.8167928279901915E-3</v>
+      </c>
     </row>
-    <row r="143" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A143" s="7" t="s">
         <v>147</v>
       </c>
@@ -35971,8 +36352,11 @@
       <c r="CJ143" s="10">
         <v>1.7918238625431737E-2</v>
       </c>
+      <c r="CK143" s="10">
+        <v>-5.0129432551260233E-4</v>
+      </c>
     </row>
-    <row r="144" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A144" s="7" t="s">
         <v>147</v>
       </c>
@@ -36237,8 +36621,11 @@
       <c r="CJ144" s="10">
         <v>-8.8078656288406165E-3</v>
       </c>
+      <c r="CK144" s="10">
+        <v>-1.4418831839786539E-2</v>
+      </c>
     </row>
-    <row r="145" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A145" s="7" t="s">
         <v>147</v>
       </c>
@@ -36503,8 +36890,11 @@
       <c r="CJ145" s="10">
         <v>8.8022074749531942E-3</v>
       </c>
+      <c r="CK145" s="10">
+        <v>0</v>
+      </c>
     </row>
-    <row r="146" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A146" s="7" t="s">
         <v>147</v>
       </c>
@@ -36769,8 +37159,11 @@
       <c r="CJ146" s="10">
         <v>2.3302750291829932E-2</v>
       </c>
+      <c r="CK146" s="10">
+        <v>2.9467265109436092E-2</v>
+      </c>
     </row>
-    <row r="147" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A147" s="7" t="s">
         <v>147</v>
       </c>
@@ -37035,8 +37428,11 @@
       <c r="CJ147" s="10">
         <v>2.6466499284128364E-2</v>
       </c>
+      <c r="CK147" s="10">
+        <v>5.0294631937495504E-2</v>
+      </c>
     </row>
-    <row r="148" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A148" s="7" t="s">
         <v>147</v>
       </c>
@@ -37301,8 +37697,11 @@
       <c r="CJ148" s="10">
         <v>2.5689995071463967E-2</v>
       </c>
+      <c r="CK148" s="10">
+        <v>-1.7878951688790168E-2</v>
+      </c>
     </row>
-    <row r="149" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A149" s="7" t="s">
         <v>147</v>
       </c>
@@ -37567,8 +37966,11 @@
       <c r="CJ149" s="10">
         <v>0.11867551375378471</v>
       </c>
+      <c r="CK149" s="10">
+        <v>4.0241402344919797E-2</v>
+      </c>
     </row>
-    <row r="150" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A150" s="7" t="s">
         <v>147</v>
       </c>
@@ -37833,8 +38235,11 @@
       <c r="CJ150" s="10">
         <v>0</v>
       </c>
+      <c r="CK150" s="10">
+        <v>0</v>
+      </c>
     </row>
-    <row r="151" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A151" s="7" t="s">
         <v>147</v>
       </c>
@@ -38099,8 +38504,11 @@
       <c r="CJ151" s="10">
         <v>0</v>
       </c>
+      <c r="CK151" s="10">
+        <v>5.9512704749822287E-3</v>
+      </c>
     </row>
-    <row r="152" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A152" s="7" t="s">
         <v>147</v>
       </c>
@@ -38365,8 +38773,11 @@
       <c r="CJ152" s="10">
         <v>-1.0128708713159962E-2</v>
       </c>
+      <c r="CK152" s="10">
+        <v>1.8293443809428878E-2</v>
+      </c>
     </row>
-    <row r="153" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A153" s="7" t="s">
         <v>147</v>
       </c>
@@ -38631,8 +39042,11 @@
       <c r="CJ153" s="10">
         <v>-1.5749040955395865E-2</v>
       </c>
+      <c r="CK153" s="10">
+        <v>1.3025269021915697E-4</v>
+      </c>
     </row>
-    <row r="154" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A154" s="7" t="s">
         <v>147</v>
       </c>
@@ -38897,8 +39311,11 @@
       <c r="CJ154" s="10">
         <v>-9.0418965317696109E-2</v>
       </c>
+      <c r="CK154" s="10">
+        <v>-2.8067310649036559E-2</v>
+      </c>
     </row>
-    <row r="155" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A155" s="7" t="s">
         <v>147</v>
       </c>
@@ -39163,8 +39580,11 @@
       <c r="CJ155" s="10">
         <v>0</v>
       </c>
+      <c r="CK155" s="10">
+        <v>1.4395168559581784E-2</v>
+      </c>
     </row>
-    <row r="156" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A156" s="7" t="s">
         <v>147</v>
       </c>
@@ -39429,8 +39849,11 @@
       <c r="CJ156" s="10">
         <v>-7.1888850726984255E-2</v>
       </c>
+      <c r="CK156" s="10">
+        <v>0</v>
+      </c>
     </row>
-    <row r="157" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A157" s="7" t="s">
         <v>147</v>
       </c>
@@ -39695,8 +40118,11 @@
       <c r="CJ157" s="10">
         <v>6.5015882451291418E-4</v>
       </c>
+      <c r="CK157" s="10">
+        <v>0</v>
+      </c>
     </row>
-    <row r="158" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A158" s="7" t="s">
         <v>147</v>
       </c>
@@ -39961,8 +40387,11 @@
       <c r="CJ158" s="10">
         <v>8.4679756557020092E-3</v>
       </c>
+      <c r="CK158" s="10">
+        <v>3.0650824869107529E-2</v>
+      </c>
     </row>
-    <row r="159" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A159" s="7" t="s">
         <v>147</v>
       </c>
@@ -40227,8 +40656,11 @@
       <c r="CJ159" s="10">
         <v>-1.2906423268732592E-3</v>
       </c>
+      <c r="CK159" s="10">
+        <v>2.5846204743307233E-4</v>
+      </c>
     </row>
-    <row r="160" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A160" s="7" t="s">
         <v>147</v>
       </c>
@@ -40493,8 +40925,11 @@
       <c r="CJ160" s="10">
         <v>0</v>
       </c>
+      <c r="CK160" s="10">
+        <v>0</v>
+      </c>
     </row>
-    <row r="161" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A161" s="7" t="s">
         <v>147</v>
       </c>
@@ -40759,8 +41194,11 @@
       <c r="CJ161" s="10">
         <v>0</v>
       </c>
+      <c r="CK161" s="10">
+        <v>0</v>
+      </c>
     </row>
-    <row r="162" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A162" s="8" t="s">
         <v>147</v>
       </c>
@@ -41025,8 +41463,11 @@
       <c r="CJ162" s="10">
         <v>0</v>
       </c>
+      <c r="CK162" s="10">
+        <v>0</v>
+      </c>
     </row>
-    <row r="163" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A163" s="3" t="s">
         <v>190</v>
       </c>
@@ -41291,8 +41732,11 @@
       <c r="CJ163" s="10">
         <v>5.6327966148266073E-2</v>
       </c>
+      <c r="CK163" s="10">
+        <v>8.5690503440996046E-3</v>
+      </c>
     </row>
-    <row r="164" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A164" s="7" t="s">
         <v>190</v>
       </c>
@@ -41557,8 +42001,11 @@
       <c r="CJ164" s="10">
         <v>2.8478396227378244E-3</v>
       </c>
+      <c r="CK164" s="10">
+        <v>0</v>
+      </c>
     </row>
-    <row r="165" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A165" s="7" t="s">
         <v>190</v>
       </c>
@@ -41823,8 +42270,11 @@
       <c r="CJ165" s="10">
         <v>1.6745496628761236E-2</v>
       </c>
+      <c r="CK165" s="10">
+        <v>1.4519864600035515E-2</v>
+      </c>
     </row>
-    <row r="166" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A166" s="7" t="s">
         <v>190</v>
       </c>
@@ -42089,8 +42539,11 @@
       <c r="CJ166" s="10">
         <v>-5.0336428524462296E-3</v>
       </c>
+      <c r="CK166" s="10">
+        <v>0</v>
+      </c>
     </row>
-    <row r="167" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A167" s="7" t="s">
         <v>190</v>
       </c>
@@ -42355,8 +42808,11 @@
       <c r="CJ167" s="10">
         <v>1.1359245807895935E-3</v>
       </c>
+      <c r="CK167" s="10">
+        <v>0</v>
+      </c>
     </row>
-    <row r="168" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A168" s="7" t="s">
         <v>190</v>
       </c>
@@ -42621,8 +43077,11 @@
       <c r="CJ168" s="10">
         <v>0</v>
       </c>
+      <c r="CK168" s="10">
+        <v>1.6396429222080844E-3</v>
+      </c>
     </row>
-    <row r="169" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A169" s="7" t="s">
         <v>190</v>
       </c>
@@ -42887,8 +43346,11 @@
       <c r="CJ169" s="10">
         <v>-1.7055678261712615E-5</v>
       </c>
+      <c r="CK169" s="10">
+        <v>0</v>
+      </c>
     </row>
-    <row r="170" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A170" s="7" t="s">
         <v>190</v>
       </c>
@@ -43153,8 +43615,11 @@
       <c r="CJ170" s="10">
         <v>2.0619414535106406E-2</v>
       </c>
+      <c r="CK170" s="10">
+        <v>5.4730302635011663E-2</v>
+      </c>
     </row>
-    <row r="171" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A171" s="7" t="s">
         <v>190</v>
       </c>
@@ -43419,8 +43884,11 @@
       <c r="CJ171" s="10">
         <v>3.0810055119723234E-3</v>
       </c>
+      <c r="CK171" s="10">
+        <v>0</v>
+      </c>
     </row>
-    <row r="172" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A172" s="7" t="s">
         <v>190</v>
       </c>
@@ -43685,8 +44153,11 @@
       <c r="CJ172" s="10">
         <v>-5.1683424334056371E-2</v>
       </c>
+      <c r="CK172" s="10">
+        <v>0</v>
+      </c>
     </row>
-    <row r="173" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A173" s="7" t="s">
         <v>190</v>
       </c>
@@ -43951,8 +44422,11 @@
       <c r="CJ173" s="10">
         <v>5.216065156198102E-3</v>
       </c>
+      <c r="CK173" s="10">
+        <v>1.0886406920817437E-2</v>
+      </c>
     </row>
-    <row r="174" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A174" s="7" t="s">
         <v>190</v>
       </c>
@@ -44217,8 +44691,11 @@
       <c r="CJ174" s="10">
         <v>0</v>
       </c>
+      <c r="CK174" s="10">
+        <v>5.4826986885763151E-3</v>
+      </c>
     </row>
-    <row r="175" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A175" s="7" t="s">
         <v>190</v>
       </c>
@@ -44483,8 +44960,11 @@
       <c r="CJ175" s="10">
         <v>-0.10295201313978786</v>
       </c>
+      <c r="CK175" s="10">
+        <v>4.8842526153267674E-2</v>
+      </c>
     </row>
-    <row r="176" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A176" s="7" t="s">
         <v>190</v>
       </c>
@@ -44749,8 +45229,11 @@
       <c r="CJ176" s="10">
         <v>7.1820744917643564E-2</v>
       </c>
+      <c r="CK176" s="10">
+        <v>3.2197494116018355E-2</v>
+      </c>
     </row>
-    <row r="177" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A177" s="7" t="s">
         <v>190</v>
       </c>
@@ -45015,8 +45498,11 @@
       <c r="CJ177" s="10">
         <v>3.0896900515542391E-3</v>
       </c>
+      <c r="CK177" s="10">
+        <v>6.4976565828718247E-3</v>
+      </c>
     </row>
-    <row r="178" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A178" s="7" t="s">
         <v>190</v>
       </c>
@@ -45281,8 +45767,11 @@
       <c r="CJ178" s="10">
         <v>-1.1540434262267141E-3</v>
       </c>
+      <c r="CK178" s="10">
+        <v>-8.8493303093841735E-3</v>
+      </c>
     </row>
-    <row r="179" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A179" s="7" t="s">
         <v>190</v>
       </c>
@@ -45547,8 +46036,11 @@
       <c r="CJ179" s="10">
         <v>-9.8215456060519735E-3</v>
       </c>
+      <c r="CK179" s="10">
+        <v>7.9427366510016473E-3</v>
+      </c>
     </row>
-    <row r="180" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A180" s="7" t="s">
         <v>190</v>
       </c>
@@ -45813,8 +46305,11 @@
       <c r="CJ180" s="10">
         <v>6.3133023311812142E-3</v>
       </c>
+      <c r="CK180" s="10">
+        <v>2.900555584635045E-2</v>
+      </c>
     </row>
-    <row r="181" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A181" s="7" t="s">
         <v>190</v>
       </c>
@@ -46079,8 +46574,11 @@
       <c r="CJ181" s="10">
         <v>2.9208809906418276E-2</v>
       </c>
+      <c r="CK181" s="10">
+        <v>-1.1989847037606083E-2</v>
+      </c>
     </row>
-    <row r="182" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A182" s="7" t="s">
         <v>190</v>
       </c>
@@ -46345,8 +46843,11 @@
       <c r="CJ182" s="10">
         <v>1.3061935343419817E-2</v>
       </c>
+      <c r="CK182" s="10">
+        <v>0</v>
+      </c>
     </row>
-    <row r="183" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A183" s="7" t="s">
         <v>190</v>
       </c>
@@ -46611,8 +47112,11 @@
       <c r="CJ183" s="10">
         <v>-2.22943763804202E-2</v>
       </c>
+      <c r="CK183" s="10">
+        <v>-4.6995675007723281E-2</v>
+      </c>
     </row>
-    <row r="184" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A184" s="7" t="s">
         <v>190</v>
       </c>
@@ -46877,8 +47381,11 @@
       <c r="CJ184" s="10">
         <v>-7.8439417725131966E-2</v>
       </c>
+      <c r="CK184" s="10">
+        <v>4.5780986856114314E-3</v>
+      </c>
     </row>
-    <row r="185" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A185" s="7" t="s">
         <v>190</v>
       </c>
@@ -47143,8 +47650,11 @@
       <c r="CJ185" s="10">
         <v>2.2317949061774423E-2</v>
       </c>
+      <c r="CK185" s="10">
+        <v>1.8797547219307598E-2</v>
+      </c>
     </row>
-    <row r="186" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A186" s="7" t="s">
         <v>190</v>
       </c>
@@ -47409,8 +47919,11 @@
       <c r="CJ186" s="10">
         <v>-1.2209965475269979E-2</v>
       </c>
+      <c r="CK186" s="10">
+        <v>1.7746985337423471E-3</v>
+      </c>
     </row>
-    <row r="187" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A187" s="7" t="s">
         <v>190</v>
       </c>
@@ -47675,8 +48188,11 @@
       <c r="CJ187" s="10">
         <v>0</v>
       </c>
+      <c r="CK187" s="10">
+        <v>4.6229303437876901E-3</v>
+      </c>
     </row>
-    <row r="188" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A188" s="7" t="s">
         <v>190</v>
       </c>
@@ -47941,8 +48457,11 @@
       <c r="CJ188" s="10">
         <v>-6.4269157828192869E-3</v>
       </c>
+      <c r="CK188" s="10">
+        <v>1.0368432834941599E-2</v>
+      </c>
     </row>
-    <row r="189" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A189" s="7" t="s">
         <v>190</v>
       </c>
@@ -48207,8 +48726,11 @@
       <c r="CJ189" s="10">
         <v>5.3923783702365391E-3</v>
       </c>
+      <c r="CK189" s="10">
+        <v>0</v>
+      </c>
     </row>
-    <row r="190" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A190" s="7" t="s">
         <v>190</v>
       </c>
@@ -48473,8 +48995,11 @@
       <c r="CJ190" s="10">
         <v>3.225356389570555E-3</v>
       </c>
+      <c r="CK190" s="10">
+        <v>9.342277486911188E-3</v>
+      </c>
     </row>
-    <row r="191" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A191" s="7" t="s">
         <v>190</v>
       </c>
@@ -48739,8 +49264,11 @@
       <c r="CJ191" s="10">
         <v>1.531261502865866E-2</v>
       </c>
+      <c r="CK191" s="10">
+        <v>2.2663945888275583E-2</v>
+      </c>
     </row>
-    <row r="192" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A192" s="7" t="s">
         <v>190</v>
       </c>
@@ -49005,8 +49533,11 @@
       <c r="CJ192" s="10">
         <v>5.495776929306917E-3</v>
       </c>
+      <c r="CK192" s="10">
+        <v>0</v>
+      </c>
     </row>
-    <row r="193" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A193" s="7" t="s">
         <v>190</v>
       </c>
@@ -49271,8 +49802,11 @@
       <c r="CJ193" s="10">
         <v>4.4107382043881094E-2</v>
       </c>
+      <c r="CK193" s="10">
+        <v>2.0778751468063961E-2</v>
+      </c>
     </row>
-    <row r="194" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A194" s="7" t="s">
         <v>190</v>
       </c>
@@ -49537,8 +50071,11 @@
       <c r="CJ194" s="10">
         <v>-4.756478224248184E-4</v>
       </c>
+      <c r="CK194" s="10">
+        <v>1.6397830806904157E-2</v>
+      </c>
     </row>
-    <row r="195" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A195" s="7" t="s">
         <v>190</v>
       </c>
@@ -49803,8 +50340,11 @@
       <c r="CJ195" s="10">
         <v>1.4439827839987096E-3</v>
       </c>
+      <c r="CK195" s="10">
+        <v>2.3535540526712362E-2</v>
+      </c>
     </row>
-    <row r="196" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A196" s="7" t="s">
         <v>190</v>
       </c>
@@ -50069,8 +50609,11 @@
       <c r="CJ196" s="10">
         <v>-1.5606747348254735E-2</v>
       </c>
+      <c r="CK196" s="10">
+        <v>8.912517207006232E-2</v>
+      </c>
     </row>
-    <row r="197" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A197" s="7" t="s">
         <v>190</v>
       </c>
@@ -50335,8 +50878,11 @@
       <c r="CJ197" s="10">
         <v>4.1533987373226111E-2</v>
       </c>
+      <c r="CK197" s="10">
+        <v>3.6493447968118931E-2</v>
+      </c>
     </row>
-    <row r="198" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A198" s="7" t="s">
         <v>190</v>
       </c>
@@ -50601,8 +51147,11 @@
       <c r="CJ198" s="10">
         <v>-1.6262444793772035E-2</v>
       </c>
+      <c r="CK198" s="10">
+        <v>0.13604542773983685</v>
+      </c>
     </row>
-    <row r="199" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A199" s="7" t="s">
         <v>190</v>
       </c>
@@ -50867,8 +51416,11 @@
       <c r="CJ199" s="10">
         <v>-3.9934667211106722E-3</v>
       </c>
+      <c r="CK199" s="10">
+        <v>7.2400193504480459E-3</v>
+      </c>
     </row>
-    <row r="200" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A200" s="7" t="s">
         <v>190</v>
       </c>
@@ -51133,8 +51685,11 @@
       <c r="CJ200" s="10">
         <v>-4.9428725543079199E-3</v>
       </c>
+      <c r="CK200" s="10">
+        <v>4.4549137106868475E-3</v>
+      </c>
     </row>
-    <row r="201" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A201" s="7" t="s">
         <v>190</v>
       </c>
@@ -51399,8 +51954,11 @@
       <c r="CJ201" s="10">
         <v>5.6132381570408674E-2</v>
       </c>
+      <c r="CK201" s="10">
+        <v>0</v>
+      </c>
     </row>
-    <row r="202" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A202" s="7" t="s">
         <v>190</v>
       </c>
@@ -51665,8 +52223,11 @@
       <c r="CJ202" s="10">
         <v>5.5545919252313558E-2</v>
       </c>
+      <c r="CK202" s="10">
+        <v>2.9965298251366512E-4</v>
+      </c>
     </row>
-    <row r="203" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A203" s="7" t="s">
         <v>190</v>
       </c>
@@ -51931,8 +52492,11 @@
       <c r="CJ203" s="10">
         <v>2.3990282417248654E-2</v>
       </c>
+      <c r="CK203" s="10">
+        <v>-9.9762752075918115E-3</v>
+      </c>
     </row>
-    <row r="204" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A204" s="7" t="s">
         <v>190</v>
       </c>
@@ -52197,8 +52761,11 @@
       <c r="CJ204" s="10">
         <v>-2.3356005224146492E-2</v>
       </c>
+      <c r="CK204" s="10">
+        <v>-2.1995484543244181E-2</v>
+      </c>
     </row>
-    <row r="205" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A205" s="7" t="s">
         <v>190</v>
       </c>
@@ -52463,8 +53030,11 @@
       <c r="CJ205" s="10">
         <v>-2.3446562404876303E-3</v>
       </c>
+      <c r="CK205" s="10">
+        <v>3.4254708579344983E-2</v>
+      </c>
     </row>
-    <row r="206" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A206" s="7" t="s">
         <v>190</v>
       </c>
@@ -52729,8 +53299,11 @@
       <c r="CJ206" s="10">
         <v>1.1519329784448473E-3</v>
       </c>
+      <c r="CK206" s="10">
+        <v>2.9837345931905013E-2</v>
+      </c>
     </row>
-    <row r="207" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A207" s="7" t="s">
         <v>190</v>
       </c>
@@ -52995,8 +53568,11 @@
       <c r="CJ207" s="10">
         <v>3.275700259890213E-3</v>
       </c>
+      <c r="CK207" s="10">
+        <v>5.0369224403890023E-4</v>
+      </c>
     </row>
-    <row r="208" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A208" s="7" t="s">
         <v>190</v>
       </c>
@@ -53261,8 +53837,11 @@
       <c r="CJ208" s="10">
         <v>2.1235885158444434E-2</v>
       </c>
+      <c r="CK208" s="10">
+        <v>0</v>
+      </c>
     </row>
-    <row r="209" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A209" s="7" t="s">
         <v>190</v>
       </c>
@@ -53527,8 +54106,11 @@
       <c r="CJ209" s="10">
         <v>4.4280046022000308E-2</v>
       </c>
+      <c r="CK209" s="10">
+        <v>6.1956197164245053E-2</v>
+      </c>
     </row>
-    <row r="210" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A210" s="8" t="s">
         <v>190</v>
       </c>
@@ -53793,8 +54375,11 @@
       <c r="CJ210" s="10">
         <v>6.1879273852165406E-2</v>
       </c>
+      <c r="CK210" s="10">
+        <v>-3.7775626958496566E-2</v>
+      </c>
     </row>
-    <row r="211" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A211" s="3" t="s">
         <v>252</v>
       </c>
@@ -54059,8 +54644,11 @@
       <c r="CJ211" s="10">
         <v>2.1465556793602847E-3</v>
       </c>
+      <c r="CK211" s="10">
+        <v>1.3775568599879051E-2</v>
+      </c>
     </row>
-    <row r="212" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A212" s="7" t="s">
         <v>252</v>
       </c>
@@ -54325,8 +54913,11 @@
       <c r="CJ212" s="10">
         <v>7.3832070451806953E-3</v>
       </c>
+      <c r="CK212" s="10">
+        <v>2.8176476254695437E-3</v>
+      </c>
     </row>
-    <row r="213" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A213" s="7" t="s">
         <v>252</v>
       </c>
@@ -54591,8 +55182,11 @@
       <c r="CJ213" s="10">
         <v>5.6690250522849706E-2</v>
       </c>
+      <c r="CK213" s="10">
+        <v>-1.0022318608666758E-3</v>
+      </c>
     </row>
-    <row r="214" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A214" s="7" t="s">
         <v>252</v>
       </c>
@@ -54857,8 +55451,11 @@
       <c r="CJ214" s="10">
         <v>3.465183195856536E-2</v>
       </c>
+      <c r="CK214" s="10">
+        <v>0</v>
+      </c>
     </row>
-    <row r="215" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A215" s="7" t="s">
         <v>252</v>
       </c>
@@ -55123,8 +55720,11 @@
       <c r="CJ215" s="10">
         <v>9.5565304720122146E-3</v>
       </c>
+      <c r="CK215" s="10">
+        <v>0</v>
+      </c>
     </row>
-    <row r="216" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A216" s="8" t="s">
         <v>252</v>
       </c>
@@ -55389,8 +55989,11 @@
       <c r="CJ216" s="10">
         <v>6.530848608173212E-3</v>
       </c>
+      <c r="CK216" s="10">
+        <v>1.9057892844300595E-2</v>
+      </c>
     </row>
-    <row r="217" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A217" s="3" t="s">
         <v>261</v>
       </c>
@@ -55655,8 +56258,11 @@
       <c r="CJ217" s="10">
         <v>-3.0472511579371253E-2</v>
       </c>
+      <c r="CK217" s="10">
+        <v>-5.8064333393128553E-3</v>
+      </c>
     </row>
-    <row r="218" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A218" s="7" t="s">
         <v>261</v>
       </c>
@@ -55921,8 +56527,11 @@
       <c r="CJ218" s="10">
         <v>-8.7165299871554081E-2</v>
       </c>
+      <c r="CK218" s="10">
+        <v>4.4020868511061906E-2</v>
+      </c>
     </row>
-    <row r="219" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A219" s="7" t="s">
         <v>261</v>
       </c>
@@ -56187,8 +56796,11 @@
       <c r="CJ219" s="10">
         <v>0</v>
       </c>
+      <c r="CK219" s="10">
+        <v>0</v>
+      </c>
     </row>
-    <row r="220" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A220" s="7" t="s">
         <v>261</v>
       </c>
@@ -56453,8 +57065,11 @@
       <c r="CJ220" s="10">
         <v>1.0569502065146397E-2</v>
       </c>
+      <c r="CK220" s="10">
+        <v>0</v>
+      </c>
     </row>
-    <row r="221" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A221" s="7" t="s">
         <v>261</v>
       </c>
@@ -56719,8 +57334,11 @@
       <c r="CJ221" s="10">
         <v>2.771958510040351E-2</v>
       </c>
+      <c r="CK221" s="10">
+        <v>0</v>
+      </c>
     </row>
-    <row r="222" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A222" s="7" t="s">
         <v>261</v>
       </c>
@@ -56985,8 +57603,11 @@
       <c r="CJ222" s="10">
         <v>-2.4556628469392994E-2</v>
       </c>
+      <c r="CK222" s="10">
+        <v>3.0684332595771968E-2</v>
+      </c>
     </row>
-    <row r="223" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A223" s="7" t="s">
         <v>261</v>
       </c>
@@ -57251,8 +57872,11 @@
       <c r="CJ223" s="10">
         <v>-2.1072109665603023E-2</v>
       </c>
+      <c r="CK223" s="10">
+        <v>0</v>
+      </c>
     </row>
-    <row r="224" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A224" s="7" t="s">
         <v>261</v>
       </c>
@@ -57517,8 +58141,11 @@
       <c r="CJ224" s="10">
         <v>-2.7081415512406615E-3</v>
       </c>
+      <c r="CK224" s="10">
+        <v>0</v>
+      </c>
     </row>
-    <row r="225" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A225" s="7" t="s">
         <v>261</v>
       </c>
@@ -57783,8 +58410,11 @@
       <c r="CJ225" s="10">
         <v>5.7882104454685113E-2</v>
       </c>
+      <c r="CK225" s="10">
+        <v>0</v>
+      </c>
     </row>
-    <row r="226" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A226" s="7" t="s">
         <v>261</v>
       </c>
@@ -58049,8 +58679,11 @@
       <c r="CJ226" s="10">
         <v>-5.7854289483638244E-2</v>
       </c>
+      <c r="CK226" s="10">
+        <v>-6.2474295450539508E-2</v>
+      </c>
     </row>
-    <row r="227" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A227" s="7" t="s">
         <v>261</v>
       </c>
@@ -58315,8 +58948,11 @@
       <c r="CJ227" s="10">
         <v>-0.14625003718725504</v>
       </c>
+      <c r="CK227" s="10">
+        <v>-2.1848466193534866E-2</v>
+      </c>
     </row>
-    <row r="228" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A228" s="7" t="s">
         <v>261</v>
       </c>
@@ -58581,8 +59217,11 @@
       <c r="CJ228" s="10">
         <v>1.7363505805414459E-3</v>
       </c>
+      <c r="CK228" s="10">
+        <v>2.7377066442035858E-3</v>
+      </c>
     </row>
-    <row r="229" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A229" s="7" t="s">
         <v>261</v>
       </c>
@@ -58847,8 +59486,11 @@
       <c r="CJ229" s="10">
         <v>-8.6206214521648006E-2</v>
       </c>
+      <c r="CK229" s="10">
+        <v>1.4718455427971566E-2</v>
+      </c>
     </row>
-    <row r="230" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A230" s="7" t="s">
         <v>261</v>
       </c>
@@ -59113,8 +59755,11 @@
       <c r="CJ230" s="10">
         <v>2.9642150754994878E-2</v>
       </c>
+      <c r="CK230" s="10">
+        <v>0</v>
+      </c>
     </row>
-    <row r="231" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A231" s="7" t="s">
         <v>261</v>
       </c>
@@ -59379,8 +60024,11 @@
       <c r="CJ231" s="10">
         <v>-3.8703781682002392E-3</v>
       </c>
+      <c r="CK231" s="10">
+        <v>6.4127355308718492E-3</v>
+      </c>
     </row>
-    <row r="232" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A232" s="7" t="s">
         <v>261</v>
       </c>
@@ -59645,8 +60293,11 @@
       <c r="CJ232" s="10">
         <v>0</v>
       </c>
+      <c r="CK232" s="10">
+        <v>0</v>
+      </c>
     </row>
-    <row r="233" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A233" s="7" t="s">
         <v>261</v>
       </c>
@@ -59911,8 +60562,11 @@
       <c r="CJ233" s="10">
         <v>0</v>
       </c>
+      <c r="CK233" s="10">
+        <v>0</v>
+      </c>
     </row>
-    <row r="234" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A234" s="7" t="s">
         <v>261</v>
       </c>
@@ -60177,8 +60831,11 @@
       <c r="CJ234" s="10">
         <v>0</v>
       </c>
+      <c r="CK234" s="10">
+        <v>-3.5863089799349379E-2</v>
+      </c>
     </row>
-    <row r="235" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A235" s="7" t="s">
         <v>261</v>
       </c>
@@ -60443,8 +61100,11 @@
       <c r="CJ235" s="10">
         <v>-0.13603416611425656</v>
       </c>
+      <c r="CK235" s="10">
+        <v>0</v>
+      </c>
     </row>
-    <row r="236" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A236" s="7" t="s">
         <v>261</v>
       </c>
@@ -60709,8 +61369,11 @@
       <c r="CJ236" s="10">
         <v>-5.9837448772256163E-2</v>
       </c>
+      <c r="CK236" s="10">
+        <v>-6.526676312752977E-2</v>
+      </c>
     </row>
-    <row r="237" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A237" s="7" t="s">
         <v>261</v>
       </c>
@@ -60975,8 +61638,11 @@
       <c r="CJ237" s="10">
         <v>-6.8238545580170062E-2</v>
       </c>
+      <c r="CK237" s="10">
+        <v>-1.3625746171814779E-3</v>
+      </c>
     </row>
-    <row r="238" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A238" s="7" t="s">
         <v>261</v>
       </c>
@@ -61241,8 +61907,11 @@
       <c r="CJ238" s="10">
         <v>-3.5682384020373603E-2</v>
       </c>
+      <c r="CK238" s="10">
+        <v>-8.2578661595009706E-3</v>
+      </c>
     </row>
-    <row r="239" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A239" s="7" t="s">
         <v>261</v>
       </c>
@@ -61507,8 +62176,11 @@
       <c r="CJ239" s="10">
         <v>-7.0613037710820614E-2</v>
       </c>
+      <c r="CK239" s="10">
+        <v>2.1001656684082937E-2</v>
+      </c>
     </row>
-    <row r="240" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A240" s="7" t="s">
         <v>261</v>
       </c>
@@ -61773,8 +62445,11 @@
       <c r="CJ240" s="10">
         <v>-1.2213211586118655E-2</v>
       </c>
+      <c r="CK240" s="10">
+        <v>3.9052945831235197E-2</v>
+      </c>
     </row>
-    <row r="241" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A241" s="7" t="s">
         <v>261</v>
       </c>
@@ -62039,8 +62714,11 @@
       <c r="CJ241" s="10">
         <v>-7.6791414164778526E-4</v>
       </c>
+      <c r="CK241" s="10">
+        <v>0</v>
+      </c>
     </row>
-    <row r="242" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A242" s="7" t="s">
         <v>261</v>
       </c>
@@ -62305,8 +62983,11 @@
       <c r="CJ242" s="10">
         <v>-7.5830754801328837E-2</v>
       </c>
+      <c r="CK242" s="10">
+        <v>0</v>
+      </c>
     </row>
-    <row r="243" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A243" s="7" t="s">
         <v>261</v>
       </c>
@@ -62571,8 +63252,11 @@
       <c r="CJ243" s="10">
         <v>3.2619228075558837E-4</v>
       </c>
+      <c r="CK243" s="10">
+        <v>-5.7065034958327931E-3</v>
+      </c>
     </row>
-    <row r="244" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A244" s="7" t="s">
         <v>261</v>
       </c>
@@ -62837,8 +63521,11 @@
       <c r="CJ244" s="10">
         <v>0</v>
       </c>
+      <c r="CK244" s="10">
+        <v>0</v>
+      </c>
     </row>
-    <row r="245" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A245" s="7" t="s">
         <v>261</v>
       </c>
@@ -63103,8 +63790,11 @@
       <c r="CJ245" s="10">
         <v>-1.0379358234047231E-2</v>
       </c>
+      <c r="CK245" s="10">
+        <v>2.7208434891794031E-2</v>
+      </c>
     </row>
-    <row r="246" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A246" s="7" t="s">
         <v>261</v>
       </c>
@@ -63369,8 +64059,11 @@
       <c r="CJ246" s="10">
         <v>-2.9264981101611021E-3</v>
       </c>
+      <c r="CK246" s="10">
+        <v>1.131710907668948E-3</v>
+      </c>
     </row>
-    <row r="247" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A247" s="8" t="s">
         <v>261</v>
       </c>
@@ -63635,8 +64328,11 @@
       <c r="CJ247" s="10">
         <v>0</v>
       </c>
+      <c r="CK247" s="10">
+        <v>-9.5307346716181462E-2</v>
+      </c>
     </row>
-    <row r="248" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A248" s="3" t="s">
         <v>309</v>
       </c>
@@ -63901,8 +64597,11 @@
       <c r="CJ248" s="10">
         <v>-1.1401321478645476E-2</v>
       </c>
+      <c r="CK248" s="10">
+        <v>1.6331071498331129E-2</v>
+      </c>
     </row>
-    <row r="249" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A249" s="7" t="s">
         <v>309</v>
       </c>
@@ -64167,8 +64866,11 @@
       <c r="CJ249" s="10">
         <v>-7.0037169603525129E-3</v>
       </c>
+      <c r="CK249" s="10">
+        <v>1.4929382202581998E-2</v>
+      </c>
     </row>
-    <row r="250" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A250" s="7" t="s">
         <v>309</v>
       </c>
@@ -64433,8 +65135,11 @@
       <c r="CJ250" s="10">
         <v>3.9660720563182261E-2</v>
       </c>
+      <c r="CK250" s="10">
+        <v>0</v>
+      </c>
     </row>
-    <row r="251" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A251" s="7" t="s">
         <v>309</v>
       </c>
@@ -64699,8 +65404,11 @@
       <c r="CJ251" s="10">
         <v>-5.8942988756253367E-2</v>
       </c>
+      <c r="CK251" s="10">
+        <v>1.6579819990525824E-2</v>
+      </c>
     </row>
-    <row r="252" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A252" s="7" t="s">
         <v>309</v>
       </c>
@@ -64965,8 +65673,11 @@
       <c r="CJ252" s="10">
         <v>6.7179947022870889E-2</v>
       </c>
+      <c r="CK252" s="10">
+        <v>-2.5246037801450516E-2</v>
+      </c>
     </row>
-    <row r="253" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A253" s="7" t="s">
         <v>309</v>
       </c>
@@ -65231,8 +65942,11 @@
       <c r="CJ253" s="10">
         <v>6.3999999999999613E-3</v>
       </c>
+      <c r="CK253" s="10">
+        <v>-1.3352638352638335E-2</v>
+      </c>
     </row>
-    <row r="254" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A254" s="7" t="s">
         <v>309</v>
       </c>
@@ -65497,8 +66211,11 @@
       <c r="CJ254" s="10">
         <v>5.7673015095621505E-2</v>
       </c>
+      <c r="CK254" s="10">
+        <v>-1.8611737643210446E-2</v>
+      </c>
     </row>
-    <row r="255" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A255" s="7" t="s">
         <v>309</v>
       </c>
@@ -65763,8 +66480,11 @@
       <c r="CJ255" s="10">
         <v>-1.4681490327656088E-2</v>
       </c>
+      <c r="CK255" s="10">
+        <v>4.3277092672040496E-2</v>
+      </c>
     </row>
-    <row r="256" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A256" s="7" t="s">
         <v>309</v>
       </c>
@@ -66029,8 +66749,11 @@
       <c r="CJ256" s="10">
         <v>1.9241702016005613E-2</v>
       </c>
+      <c r="CK256" s="10">
+        <v>-1.2923156133350489E-2</v>
+      </c>
     </row>
-    <row r="257" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A257" s="7" t="s">
         <v>309</v>
       </c>
@@ -66295,8 +67018,11 @@
       <c r="CJ257" s="10">
         <v>0</v>
       </c>
+      <c r="CK257" s="10">
+        <v>0</v>
+      </c>
     </row>
-    <row r="258" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A258" s="7" t="s">
         <v>309</v>
       </c>
@@ -66561,8 +67287,11 @@
       <c r="CJ258" s="10">
         <v>-5.2257720543001374E-2</v>
       </c>
+      <c r="CK258" s="10">
+        <v>4.3706293706293753E-2</v>
+      </c>
     </row>
-    <row r="259" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A259" s="7" t="s">
         <v>309</v>
       </c>
@@ -66827,8 +67556,11 @@
       <c r="CJ259" s="10">
         <v>6.0437854569060478E-2</v>
       </c>
+      <c r="CK259" s="10">
+        <v>-2.2268553431220361E-2</v>
+      </c>
     </row>
-    <row r="260" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A260" s="7" t="s">
         <v>309</v>
       </c>
@@ -67093,8 +67825,11 @@
       <c r="CJ260" s="10">
         <v>-2.7342175731468243E-2</v>
       </c>
+      <c r="CK260" s="10">
+        <v>0</v>
+      </c>
     </row>
-    <row r="261" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A261" s="7" t="s">
         <v>309</v>
       </c>
@@ -67359,8 +68094,11 @@
       <c r="CJ261" s="10">
         <v>9.7946567440396759E-3</v>
       </c>
+      <c r="CK261" s="10">
+        <v>0</v>
+      </c>
     </row>
-    <row r="262" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A262" s="7" t="s">
         <v>309</v>
       </c>
@@ -67625,8 +68363,11 @@
       <c r="CJ262" s="10">
         <v>2.951388888888884E-2</v>
       </c>
+      <c r="CK262" s="10">
+        <v>9.3270283896316197E-3</v>
+      </c>
     </row>
-    <row r="263" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A263" s="7" t="s">
         <v>309</v>
       </c>
@@ -67891,8 +68632,11 @@
       <c r="CJ263" s="10">
         <v>-3.8414233484407312E-3</v>
       </c>
+      <c r="CK263" s="10">
+        <v>-1.5086680761099425E-2</v>
+      </c>
     </row>
-    <row r="264" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A264" s="7" t="s">
         <v>309</v>
       </c>
@@ -68157,8 +68901,11 @@
       <c r="CJ264" s="10">
         <v>1.6899499103901539E-2</v>
       </c>
+      <c r="CK264" s="10">
+        <v>1.8076032310920809E-4</v>
+      </c>
     </row>
-    <row r="265" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A265" s="7" t="s">
         <v>309</v>
       </c>
@@ -68423,8 +69170,11 @@
       <c r="CJ265" s="10">
         <v>3.7061157857260607E-2</v>
       </c>
+      <c r="CK265" s="10">
+        <v>6.9581090020012226E-3</v>
+      </c>
     </row>
-    <row r="266" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A266" s="7" t="s">
         <v>309</v>
       </c>
@@ -68689,8 +69439,11 @@
       <c r="CJ266" s="10">
         <v>5.7801427827637308E-3</v>
       </c>
+      <c r="CK266" s="10">
+        <v>0</v>
+      </c>
     </row>
-    <row r="267" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A267" s="7" t="s">
         <v>309</v>
       </c>
@@ -68955,8 +69708,11 @@
       <c r="CJ267" s="10">
         <v>4.138261721600367E-3</v>
       </c>
+      <c r="CK267" s="10">
+        <v>8.3046994217905734E-5</v>
+      </c>
     </row>
-    <row r="268" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A268" s="7" t="s">
         <v>309</v>
       </c>
@@ -69221,8 +69977,11 @@
       <c r="CJ268" s="10">
         <v>1.7599591046846941E-2</v>
       </c>
+      <c r="CK268" s="10">
+        <v>0</v>
+      </c>
     </row>
-    <row r="269" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A269" s="7" t="s">
         <v>309</v>
       </c>
@@ -69487,8 +70246,11 @@
       <c r="CJ269" s="10">
         <v>7.1659579282834507E-4</v>
       </c>
+      <c r="CK269" s="10">
+        <v>-3.0047204922125981E-2</v>
+      </c>
     </row>
-    <row r="270" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A270" s="7" t="s">
         <v>309</v>
       </c>
@@ -69753,8 +70515,11 @@
       <c r="CJ270" s="10">
         <v>0</v>
       </c>
+      <c r="CK270" s="10">
+        <v>-4.6373463157026062E-2</v>
+      </c>
     </row>
-    <row r="271" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A271" s="7" t="s">
         <v>309</v>
       </c>
@@ -70019,8 +70784,11 @@
       <c r="CJ271" s="10">
         <v>-2.8422341157444242E-2</v>
       </c>
+      <c r="CK271" s="10">
+        <v>0</v>
+      </c>
     </row>
-    <row r="272" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A272" s="7" t="s">
         <v>309</v>
       </c>
@@ -70285,8 +71053,11 @@
       <c r="CJ272" s="10">
         <v>5.6776335404227218E-2</v>
       </c>
+      <c r="CK272" s="10">
+        <v>0</v>
+      </c>
     </row>
-    <row r="273" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A273" s="7" t="s">
         <v>309</v>
       </c>
@@ -70551,8 +71322,11 @@
       <c r="CJ273" s="10">
         <v>0</v>
       </c>
+      <c r="CK273" s="10">
+        <v>-6.793879600638375E-4</v>
+      </c>
     </row>
-    <row r="274" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A274" s="7" t="s">
         <v>309</v>
       </c>
@@ -70817,8 +71591,11 @@
       <c r="CJ274" s="10">
         <v>1.2346260779416696E-3</v>
       </c>
+      <c r="CK274" s="10">
+        <v>-3.3566775857524767E-2</v>
+      </c>
     </row>
-    <row r="275" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A275" s="7" t="s">
         <v>309</v>
       </c>
@@ -71083,8 +71860,11 @@
       <c r="CJ275" s="10">
         <v>-6.3417369006368851E-4</v>
       </c>
+      <c r="CK275" s="10">
+        <v>2.2807953354058164E-3</v>
+      </c>
     </row>
-    <row r="276" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A276" s="7" t="s">
         <v>309</v>
       </c>
@@ -71349,8 +72129,11 @@
       <c r="CJ276" s="10">
         <v>-8.7056447399813663E-6</v>
       </c>
+      <c r="CK276" s="10">
+        <v>6.0069471649826234E-4</v>
+      </c>
     </row>
-    <row r="277" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A277" s="7" t="s">
         <v>309</v>
       </c>
@@ -71615,8 +72398,11 @@
       <c r="CJ277" s="10">
         <v>0</v>
       </c>
+      <c r="CK277" s="10">
+        <v>0</v>
+      </c>
     </row>
-    <row r="278" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A278" s="7" t="s">
         <v>309</v>
       </c>
@@ -71881,8 +72667,11 @@
       <c r="CJ278" s="10">
         <v>0</v>
       </c>
+      <c r="CK278" s="10">
+        <v>0</v>
+      </c>
     </row>
-    <row r="279" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A279" s="7" t="s">
         <v>309</v>
       </c>
@@ -72147,8 +72936,11 @@
       <c r="CJ279" s="10">
         <v>1.6997347287328823E-2</v>
       </c>
+      <c r="CK279" s="10">
+        <v>1.6436349343886825E-3</v>
+      </c>
     </row>
-    <row r="280" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A280" s="7" t="s">
         <v>309</v>
       </c>
@@ -72413,8 +73205,11 @@
       <c r="CJ280" s="10">
         <v>2.1317977594890181E-3</v>
       </c>
+      <c r="CK280" s="10">
+        <v>0</v>
+      </c>
     </row>
-    <row r="281" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A281" s="7" t="s">
         <v>309</v>
       </c>
@@ -72679,8 +73474,11 @@
       <c r="CJ281" s="10">
         <v>7.518055879137675E-3</v>
       </c>
+      <c r="CK281" s="10">
+        <v>0</v>
+      </c>
     </row>
-    <row r="282" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A282" s="7" t="s">
         <v>309</v>
       </c>
@@ -72945,8 +73743,11 @@
       <c r="CJ282" s="10">
         <v>1.4041039001914557E-2</v>
       </c>
+      <c r="CK282" s="10">
+        <v>0</v>
+      </c>
     </row>
-    <row r="283" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A283" s="8" t="s">
         <v>309</v>
       </c>
@@ -73211,8 +74012,11 @@
       <c r="CJ283" s="10">
         <v>0</v>
       </c>
+      <c r="CK283" s="10">
+        <v>0</v>
+      </c>
     </row>
-    <row r="284" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A284" s="3" t="s">
         <v>356</v>
       </c>
@@ -73477,8 +74281,11 @@
       <c r="CJ284" s="10">
         <v>-0.30139967224565456</v>
       </c>
+      <c r="CK284" s="10">
+        <v>-4.6262113520996739E-2</v>
+      </c>
     </row>
-    <row r="285" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A285" s="7" t="s">
         <v>356</v>
       </c>
@@ -73743,8 +74550,11 @@
       <c r="CJ285" s="10">
         <v>1.4042768142784823E-2</v>
       </c>
+      <c r="CK285" s="10">
+        <v>0</v>
+      </c>
     </row>
-    <row r="286" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A286" s="7" t="s">
         <v>356</v>
       </c>
@@ -74009,8 +74819,11 @@
       <c r="CJ286" s="10">
         <v>-2.1167631264198072E-2</v>
       </c>
+      <c r="CK286" s="10">
+        <v>-1.3039199606363794E-2</v>
+      </c>
     </row>
-    <row r="287" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A287" s="7" t="s">
         <v>356</v>
       </c>
@@ -74275,8 +75088,11 @@
       <c r="CJ287" s="10">
         <v>4.1730133121828938E-3</v>
       </c>
+      <c r="CK287" s="10">
+        <v>1.4603191699427365E-2</v>
+      </c>
     </row>
-    <row r="288" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A288" s="7" t="s">
         <v>356</v>
       </c>
@@ -74541,8 +75357,11 @@
       <c r="CJ288" s="10">
         <v>1.9695072549163806E-2</v>
       </c>
+      <c r="CK288" s="10">
+        <v>3.5075554014619703E-2</v>
+      </c>
     </row>
-    <row r="289" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A289" s="7" t="s">
         <v>356</v>
       </c>
@@ -74807,8 +75626,11 @@
       <c r="CJ289" s="10">
         <v>1.0816788951230061E-2</v>
       </c>
+      <c r="CK289" s="10">
+        <v>4.7411914356114693E-3</v>
+      </c>
     </row>
-    <row r="290" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A290" s="7" t="s">
         <v>356</v>
       </c>
@@ -75073,8 +75895,11 @@
       <c r="CJ290" s="10">
         <v>1.2246064752911678E-2</v>
       </c>
+      <c r="CK290" s="10">
+        <v>3.6257299286697187E-3</v>
+      </c>
     </row>
-    <row r="291" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A291" s="7" t="s">
         <v>356</v>
       </c>
@@ -75339,8 +76164,11 @@
       <c r="CJ291" s="10">
         <v>1.4679946802359289E-2</v>
       </c>
+      <c r="CK291" s="10">
+        <v>1.1539858814813009E-3</v>
+      </c>
     </row>
-    <row r="292" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A292" s="7" t="s">
         <v>356</v>
       </c>
@@ -75605,8 +76433,11 @@
       <c r="CJ292" s="10">
         <v>2.933326215768961E-2</v>
       </c>
+      <c r="CK292" s="10">
+        <v>1.1013872682484216E-2</v>
+      </c>
     </row>
-    <row r="293" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A293" s="7" t="s">
         <v>356</v>
       </c>
@@ -75871,8 +76702,11 @@
       <c r="CJ293" s="10">
         <v>1.8183928823144013E-2</v>
       </c>
+      <c r="CK293" s="10">
+        <v>0</v>
+      </c>
     </row>
-    <row r="294" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A294" s="7" t="s">
         <v>356</v>
       </c>
@@ -76137,8 +76971,11 @@
       <c r="CJ294" s="10">
         <v>0</v>
       </c>
+      <c r="CK294" s="10">
+        <v>0</v>
+      </c>
     </row>
-    <row r="295" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A295" s="7" t="s">
         <v>356</v>
       </c>
@@ -76403,8 +77240,11 @@
       <c r="CJ295" s="10">
         <v>0</v>
       </c>
+      <c r="CK295" s="10">
+        <v>0</v>
+      </c>
     </row>
-    <row r="296" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A296" s="7" t="s">
         <v>356</v>
       </c>
@@ -76669,8 +77509,11 @@
       <c r="CJ296" s="10">
         <v>0</v>
       </c>
+      <c r="CK296" s="10">
+        <v>0</v>
+      </c>
     </row>
-    <row r="297" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A297" s="7" t="s">
         <v>356</v>
       </c>
@@ -76935,8 +77778,11 @@
       <c r="CJ297" s="10">
         <v>1.4831342695891703E-2</v>
       </c>
+      <c r="CK297" s="10">
+        <v>2.624691883996233E-2</v>
+      </c>
     </row>
-    <row r="298" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A298" s="7" t="s">
         <v>356</v>
       </c>
@@ -77201,8 +78047,11 @@
       <c r="CJ298" s="10">
         <v>0</v>
       </c>
+      <c r="CK298" s="10">
+        <v>3.2810897905375835E-2</v>
+      </c>
     </row>
-    <row r="299" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A299" s="7" t="s">
         <v>356</v>
       </c>
@@ -77467,8 +78316,11 @@
       <c r="CJ299" s="10">
         <v>2.9476293356109906E-3</v>
       </c>
+      <c r="CK299" s="10">
+        <v>1.6281205644150809E-3</v>
+      </c>
     </row>
-    <row r="300" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A300" s="7" t="s">
         <v>356</v>
       </c>
@@ -77733,8 +78585,11 @@
       <c r="CJ300" s="10">
         <v>4.3120423018208287E-2</v>
       </c>
+      <c r="CK300" s="10">
+        <v>0</v>
+      </c>
     </row>
-    <row r="301" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A301" s="7" t="s">
         <v>356</v>
       </c>
@@ -77999,8 +78854,11 @@
       <c r="CJ301" s="10">
         <v>2.7767675298225214E-2</v>
       </c>
+      <c r="CK301" s="10">
+        <v>-3.4713989985668436E-2</v>
+      </c>
     </row>
-    <row r="302" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A302" s="7" t="s">
         <v>356</v>
       </c>
@@ -78265,8 +79123,11 @@
       <c r="CJ302" s="10">
         <v>0</v>
       </c>
+      <c r="CK302" s="10">
+        <v>0</v>
+      </c>
     </row>
-    <row r="303" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A303" s="7" t="s">
         <v>356</v>
       </c>
@@ -78531,8 +79392,11 @@
       <c r="CJ303" s="10">
         <v>0</v>
       </c>
+      <c r="CK303" s="10">
+        <v>0</v>
+      </c>
     </row>
-    <row r="304" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A304" s="7" t="s">
         <v>356</v>
       </c>
@@ -78797,8 +79661,11 @@
       <c r="CJ304" s="10">
         <v>0</v>
       </c>
+      <c r="CK304" s="10">
+        <v>0</v>
+      </c>
     </row>
-    <row r="305" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A305" s="7" t="s">
         <v>356</v>
       </c>
@@ -79063,8 +79930,11 @@
       <c r="CJ305" s="10">
         <v>-2.4134806708356993E-2</v>
       </c>
+      <c r="CK305" s="10">
+        <v>9.102576939531648E-3</v>
+      </c>
     </row>
-    <row r="306" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A306" s="8" t="s">
         <v>356</v>
       </c>
@@ -79329,8 +80199,11 @@
       <c r="CJ306" s="10">
         <v>0</v>
       </c>
+      <c r="CK306" s="10">
+        <v>0</v>
+      </c>
     </row>
-    <row r="307" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A307" s="3" t="s">
         <v>391</v>
       </c>
@@ -79595,8 +80468,11 @@
       <c r="CJ307" s="10">
         <v>1.7455338879039939E-3</v>
       </c>
+      <c r="CK307" s="10">
+        <v>1.6335865392469451E-4</v>
+      </c>
     </row>
-    <row r="308" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A308" s="7" t="s">
         <v>391</v>
       </c>
@@ -79861,8 +80737,11 @@
       <c r="CJ308" s="10">
         <v>1.5040678197853152E-2</v>
       </c>
+      <c r="CK308" s="10">
+        <v>5.4783794706001254E-2</v>
+      </c>
     </row>
-    <row r="309" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A309" s="7" t="s">
         <v>391</v>
       </c>
@@ -80127,8 +81006,11 @@
       <c r="CJ309" s="10">
         <v>1.6533900358820741E-2</v>
       </c>
+      <c r="CK309" s="10">
+        <v>0</v>
+      </c>
     </row>
-    <row r="310" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A310" s="7" t="s">
         <v>391</v>
       </c>
@@ -80393,8 +81275,11 @@
       <c r="CJ310" s="10">
         <v>1.7783209002864009E-3</v>
       </c>
+      <c r="CK310" s="10">
+        <v>1.4565448934433789E-4</v>
+      </c>
     </row>
-    <row r="311" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A311" s="7" t="s">
         <v>391</v>
       </c>
@@ -80659,8 +81544,11 @@
       <c r="CJ311" s="10">
         <v>2.8629750722228842E-3</v>
       </c>
+      <c r="CK311" s="10">
+        <v>0</v>
+      </c>
     </row>
-    <row r="312" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A312" s="7" t="s">
         <v>391</v>
       </c>
@@ -80925,8 +81813,11 @@
       <c r="CJ312" s="10">
         <v>-1.8701916946486374E-3</v>
       </c>
+      <c r="CK312" s="10">
+        <v>5.275305540177988E-2</v>
+      </c>
     </row>
-    <row r="313" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A313" s="7" t="s">
         <v>391</v>
       </c>
@@ -81191,8 +82082,11 @@
       <c r="CJ313" s="10">
         <v>0</v>
       </c>
+      <c r="CK313" s="10">
+        <v>-9.2003495266225199E-3</v>
+      </c>
     </row>
-    <row r="314" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A314" s="7" t="s">
         <v>391</v>
       </c>
@@ -81457,8 +82351,11 @@
       <c r="CJ314" s="10">
         <v>0</v>
       </c>
+      <c r="CK314" s="10">
+        <v>3.343194067351174E-4</v>
+      </c>
     </row>
-    <row r="315" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A315" s="7" t="s">
         <v>391</v>
       </c>
@@ -81723,8 +82620,11 @@
       <c r="CJ315" s="10">
         <v>0</v>
       </c>
+      <c r="CK315" s="10">
+        <v>0</v>
+      </c>
     </row>
-    <row r="316" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A316" s="7" t="s">
         <v>391</v>
       </c>
@@ -81989,8 +82889,11 @@
       <c r="CJ316" s="10">
         <v>9.5455849496204337E-3</v>
       </c>
+      <c r="CK316" s="10">
+        <v>7.1474703982765675E-4</v>
+      </c>
     </row>
-    <row r="317" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A317" s="8" t="s">
         <v>391</v>
       </c>
@@ -82253,6 +83156,9 @@
         <v>0</v>
       </c>
       <c r="CJ317" s="11">
+        <v>0</v>
+      </c>
+      <c r="CK317" s="11">
         <v>0</v>
       </c>
     </row>
